--- a/public/cetak/perkara_belum_2023-09-13.xlsx
+++ b/public/cetak/perkara_belum_2023-09-13.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>No Laporan/ Tgl. Laporan</t>
   </si>
@@ -39,6 +39,1067 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>LP/B/569/VII/2023/2023-08-05 17:00:00</t>
+  </si>
+  <si>
+    <t>DAVID FEBRIANSYAH
+3277032502000005
+Bandung, 25-02-2000 Lk
+Mahasiswa
+Jl. Pesantren No. 4 Rt. 004 Rw. 015 Kel. Cibabat Kec. Cimahi Utara Kota Cimahi
+087848284007
+Islam
+S1 profesi Indonesia/Jln. Budi No. 14 Rt.01/04 Kel. Pasirkaliki Kec. Cimahi Utara Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Kamis tanggal 06 Juli 2023 diketahui sekira pukul 05.30 Wib JI. Budi No. 14 RL 01 Rw. 04 Kel. Pasirkaliki Kec. Cimahi Utara Kota Cimahi telah terjadi tindak pidana pencurian dengan pemberatan 1 (satu) unit sepeda motor roda dua merk Honda H1B02N42LO A/T, No. Reg: D 3665 SBM, tahun 2020, wama hitam, 110 cc. No. Rangka: MH1JM9110LKO18893, No. Mesin JM91E1019094, No P 07878651 stnk an DAVID FEBRIANSYAH, sepeda motor tersebut hilang sewaktu diparkirkan di garasi/halaman rumah dalam keadaan dikunci stang (lubang kunci tidak ditutup), diduga pelaku melakukan pencurian sepeda motor tersebut dengan merusak lubang kunci kontak sepeda motor/menggunakan kunci palsu. Akibat kejadian tersebut korban menderita kerugian sebesar Rp 15.000.000,- (lima belas juta rupiah) selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih lanjut</t>
+  </si>
+  <si>
+    <t>PASAL 363 KUHP/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LP/B/705/VIII/2023/2023-08-18 17:00:00</t>
+  </si>
+  <si>
+    <t>HUSNI NASRUDIN
+3217140807890001
+Bandung 08-07-1989
+Perempuan
+Buruh Hrian Lepas
+Kp Cicangkang 02/04
+Ds Cicangkang Girang
+Kec Sindangkerta Kbb
+085697706979
+Islam
+1 SMA
+Indonesia/Di Kontrakan Kp Ciputri 06/05 Kel Cigugur Tengah Kec Cimahi tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada Hari Sabtu Tanggal 19 Agustus 2023 Pukul 03.00 Wib.Di rumah Kontrakan (tanpa nama) milik ibu Nur Hikmah Kp Ciputri 06/05 Kel Cigugur Tengah Kec Cimahi tengah Kota Cimahi Telah Terjadi Tindak Pidana Pencurian dengan Pemberatan yaitu 1 (satu) unit Sepeda motor No Pol D-2852-UDL,Merk Honda Beat Street, Thn 2018,Wama Hitam,No Ka MH1JFZ211JK301132,No Sin JFZ2E1301053,No Bpkb 0-03142411,An Pemilik HUSNI NASRUDIN.Yang diparkir didepan rumah kontrakan yang diketahui pertama kali oleh istri korban/pelapor yang akan sholat dan melihat sepeda motor sudah tidak ada di parkir tempat biasa dan terkunci pengaman serta diberi gembok 2 (dua) buah dicakram atas kejadian tersebut Pelapor / Korban mengalami kerugian Rp. 17.000.000 (tujuh belas juta rupiah) dan selanjutnya melaporkan ke polres Cimahi Guna Pengusutan lebih Lanjut.</t>
+  </si>
+  <si>
+    <t>Pasal 363 KUHP/BRIPKA DOHAR BACIN, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>SP2HP 8/8/2023 HUSNI NASRUDIN</t>
+  </si>
+  <si>
+    <t>B/275/VIII/2023/2023-08-20 17:00:00</t>
+  </si>
+  <si>
+    <t>Abed Pitono
+Sidoarjo, 24 Maret 1973
+Citra Fajar Golf AT 7000 F 7309 Sidoarjo, Jawa Timur
+085320392170
+abedpitono3@gmail.com/</t>
+  </si>
+  <si>
+    <t>Saya akan mengadukan perkara pemalsuan tanda tangan yang saya alami, yang baru saya ketahui pada saat saya akan mengajukan KUR BRI. Saat itu saya diberi tahu oleh pihak bank BRI jika data saya digunakan oleh orang lain untuk membuat perjanjian pembiayaan pembelian sepeda motor di BCA Multifinance, yang mana setelah orang itu tersebut melakukan perjanjian pembiayaan tidak melakukan pembayaran sehingga nama saya di blacklist oleh bank. Akibat perjanjian tersebut maka saya memiliki hutang dan perjanjian yang dilakukan oleh orang lain serta tidak dapat mengambil KUR di BRI untuk kelengkapan pengaduan saya. Berikut saya lampirkan Fotocopy KTP milik saya dan istri saya, Fotocopy berkas perjanjian pembiayaan BCA MultiFinance, serta foto orang yang di duga menggunakan KTP milik saya untuk dipakai mengajukan pembiayaan. Demikan surat pengaduan saya buat dan berharap dapat ditindak lanjuti lebih lanjut, Terima kasih</t>
+  </si>
+  <si>
+    <t>Pemalsuan Tanda Tangan/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LI/428/VII/2023/2023-07-03 17:00:00</t>
+  </si>
+  <si>
+    <t>GUNANTORO, SKM, M.KES./Jln. Jend Sudirman No. 40533, Baros, Kec. Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Dengan ini saya mengadukan tentang adanya peristiwa dugaan tindak pidana Penggelapan sesuai dengan pasal 372 KUHPidana yang dilakukan Oleh Terlapor Atasnama Sdr. HERI SUHARTO dengan cara menerima uang titipan untuk biaya masuk kuliah ke Fakultas Kedokteran UNJANI namun kenyataannya uang tersebut tidak dibayarkan seluruhnya dengan total kerugian Seluruhnya Rp. 290.535.000,- (Dua Ratus Sembilan Puluh Juta Lima Ratus Tiga Puluh Lima Ribu Rupiah), dimana awalnya saya dengan isteri saya dikenalkan oleh Sdri. Warsini kepada Sdr. HERI SUHARTO karena anak saya yang bemama Sdr. Bieta Aliya ingin masuk Fakultas kedokteran UNJANI pada tahun 2020 sekitar Bulan September awal. Lalu saya dengan isteri saya mendatangi Rumah Sdr. HERI SUHARTO untuk berbincang dengan Sdr. HERI SUHARTO dan pada saat itu Sdr. HERI SUHARTO Menyanggupi Untuk Membantu kami. Lalu isteri saya menghubungi Sdr. HERI SUHARTO melalui telfon dimana di dalam Telfon Sdr. HERI SUHARTO menyanggupi untuk membantu anak saya untuk masuk ke Fakultas kedokteran UNJANI. Karena Anak saya pada saat itu masih kelas 3 SMA dan Sdr. HERI SUHARTO meminta sejumlah dengan kata-kata "kesinikan terlebih dahulu uangnya, seadanya dulu juga tidak apa apa, sisanya nanti saja. Lalu karena pada saat itu anak saya sudah mulai daftar ke Universitas, maka pada bulan september hingga bulan April Tahun 2021, saya Transfer kepada Sdr. HERI dengan cara mencicil dengan Bukti Transfer terlampir. Akan tetapi diketahui pada Bulan Maret 2022 Kami Pihak Orangtua di panggil Oleh Pihak Kampus dimana ada tunggakan Pembayaran Senilai Rp. 193.535.000,- (Seratus Sembilan Puluh Tiga Juta Lima Ratus Tiga Puluh Lima Ribu Rupiah). Lalu kami datang ke kampus UNJANI dan membuat Pernyataan Bahwa Sudah Pernah Menyerahkan Uang untuk Biaya Pendidikan Sejumlah Rp. 460.000.000,- (Empat Ratus Enam Puluh Juta Rupiah), dimana uang yang sudah masuk ke fakultas kedokteran UNJANI Hanya Senilai Rp. 120.000.000,- (Seratus Dua Puluh Juta Rupiah). Dimana Sdr. HERI SUHARTO pemah membayarkan sisa tunggakan sebesar Rp. 50.000.000,- (Lima Puluh Juta Rupiah). Karena saya khawatir anak saya tidak bisa mengikuti Ujian dan terhambat dalam perkuliahannya, maka untuk sisanya Sejumlah Rp. 143.535.000,-(Seratus Empat Puluh Tiga Juta Lima Ratus Tiga Puluh Lima Ribu Rupiah) saya lunasi dengan cara membayar langsung ke Pihak Unjani. Atas Kejadian Tersebut Untuk itu saya melaporkan kejadian tersebut kepada pihak kepolisian Resor Cimahi untuk di tindak lanjuti, Bukti bukti telah dilamiprkan.</t>
+  </si>
+  <si>
+    <t>Diduga HERI SUHARTO Warung Contong No. 83/72 Rt.05/14 Kel. Setiamanah Kec. Cimahi Tengah Kota Cimahi.</t>
+  </si>
+  <si>
+    <t>Pasal 378/AIPDA EKA PRATAMA|BRIPKA DOHAR BACIN, SH.</t>
+  </si>
+  <si>
+    <t>Limpah Berkas ke penyidik baru</t>
+  </si>
+  <si>
+    <t>B/709/VIII/2023/2023-08-20 17:00:00</t>
+  </si>
+  <si>
+    <t>WUCKY FUZIANA WIJAYA
+32730104070000002
+Bandung 04-07-2000 Laki-Laki
+Pelajar/Mahasiswa
+JI Sukahaji No 138 01/07 Kel Sukarasa Kec Sukasari Kota Bandung
+089514129784
+Islam
+SMA
+Indonesia/Kp. Pangkalan No 50 01/10 Ds Sariwangi Kec parongpong Kab bandung barat</t>
+  </si>
+  <si>
+    <t>Pada Hari Sabtu Tanggal 19 Agustus 2023 Pukul 05.00 Wib.Di Kp Pangkalan No 50 01/10 Ds Sariwangi Kec parongpong Kab bandung barat Telah Terjadi Tindak Pidana Pencurian dengan Pemberatan yaitu 1 (satu) unit Sepeda motor No Pol D-2165- ADI,Merk Honda Scoopy,Thn 2021,Wama Kream Coklat No Ka MH1JM0110MK188278, No Sin JM01E1187192,No Bpkb Q-07080659 An Pemilik WUCKY FUZIANA WIJAYA.Yang berawal dari korban/Pelapor sedang menginap di rumah teman,dan kendaraan milik korban / pelapor diparkir di dalam halaman teras yang berpagar dan dalam keadaan terkunci stang/pengaman dan diberi alarm.yang diketahui pertama kali oleh korban/pelpor yang akan pulang serta melihat kendaraannya sudah tidak ada ditempat atas kejadian tersebut Pelapor / Korban mengalami kerugian Rp. 18.000.000 (delapan belas juta rupiah) dan selanjutnya melaporkan ke polres Cimahi Guna Pengusutan lebih Lanjut.</t>
+  </si>
+  <si>
+    <t>Pasal 363 KUHPidana/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LI/335/VIII/2022/Reskrim/2023-08-16 17:00:00</t>
+  </si>
+  <si>
+    <t>HASAN TOHA Bin SAYOGYA (Alm)
+3204110111500001
+Bandung, 01 November 1950
+Laki-laki
+Islam
+Wiraswasta
+Indonesia
+Cikambuy Hilir Rt 004 Rw 011 Desa Sangkan Hurip Kec. Katapang Kab. Bandung
+081320762827/Kp. Mahmud Desa Mekar Rahayu Kec. Margaasih Kab. Bandung</t>
+  </si>
+  <si>
+    <t>Saya mengadukan tentang dugaan peristiwa tindak pidana penipuan dan atau penggelapan yang ketahui terjadi pada tanggal 27 November 2019 di Kp Mahmud Desa Mekar Rahayu Kec. Margaasih ab. Bandung yang diduga dilakukan oleh terlapor kl 5 (lima) orang dengan cara mengatas namakan arang taruna desa Mekar Rahayu Kec. Margaasih Kab bandung dan meminta sejumlah uang kepada saya dengan alasan menjanjikan kepada saya bahwa saya akan tetap menjadi suplayer tunggal di bidang bahan bangunan di Desa tersebut namun pada kenyataanya ada suplayer lain yang masuk elain saya dan meminta lagi sejumlah uang kepada saya dengan alasan untuk biaya mengangkut ampah namun uang tersebut tidak dipakai untuk mengangkut sampah melainkan dipakai keperluan inbadi serta meminta biaya-biaya lain mengatasnamakan keperluan Desa, sehingga atas peristiwa ersebut saya mengalami kerugian sebesar kl Rp 59.000.000,- (lima puluh sembilan juta rupiah) dan engan adanya kejadian tersebut pelapor mengadukan kepada pihak Kepolisian</t>
+  </si>
+  <si>
+    <t>AWALUDIN MAZID
+H. SOLIHIN
+H.IIM
+YANA
+UTIS</t>
+  </si>
+  <si>
+    <t>378-372 KUHP/BRIPKA DOHAR BACIN, SH.</t>
+  </si>
+  <si>
+    <t>SP2HP/1640/IX/23 Tgl. 12/9/23 An. HASAN TOHA
+Permintaan Keterangan Sdr. KIRAN, Tgl. 18/9/23
+Permintaan Keterangan Sdr. YANTO, Tgl. 18/9/23
+Permintaan Keterangan Sdr. H. KIKI, Tgl. 19/9/23
+Permintaan Keterangan Sdr. AJAY, Tgl. 19/9/23</t>
+  </si>
+  <si>
+    <t>LP/B/786/1X/2023/2023-09-10 17:00:00</t>
+  </si>
+  <si>
+    <t>TUTI WIJAYANTI
+3277016007760025
+Bandung, 20-07-1976 Perempuan
+Mengurus Rumah Tangga
+Kp. Saradan No 289 Rt 05 Rw 02 Leuwigajah Cimahi Selatan Kota Cimahi
+087837493111
+Islam
+SMA/Kp. Saradan No 289 Rt 05 Rw 02 Leuwigajah Cimahi Selatan Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari pada hari Minggu 10 September 2023 sekira jam 03.00 Wib tempat kejadian Kp. Saradan No 289 Rt 05 Rw 02 Leuwigajah Cimahi Selatan Kota Cimahi, telah terjadi dugaan tindak pidana pencurian 1 unit kendaraan R2 Merek Honda No Pol D 3701 SBD tahun 2017 wama Hitam No. Ka MH1JM2119HK650015, No.Sin: JM21E1637804, No BPKB: N 06025770,Stnk a.n. TUTI WIJATANTI, yang dilakukan oleh orang tidak dikenal dengan cara pelaku mengambil sepeda motor korban Kendaraan yang disimpan di dapur rumah kendaran dalam keadaan terkunci stang, Akibat peritiwa tersebut korban dirugikan sebesar Rp.8.000.000,- (delapan juta rupiah). selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih lanjut</t>
+  </si>
+  <si>
+    <t>363 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPKA HERDIANSYAH. SH.</t>
+  </si>
+  <si>
+    <t>B/424/IV/2022/2023-04-05 17:00:00</t>
+  </si>
+  <si>
+    <t>SHERLEY YOVIANI
+32777036607790042
+Bandung,26-07-1979
+Perempuan
+Mengurus Rumah Tangga
+Setra Duta M6 No 4 7/9 Kel Pasirkaliki Kec Cimahi Utara Kota Cimahi
+081221111162
+Katholik
+S1
+Indonesia/Setra Duta M6 No 4 7/9 Kel Pasirkaliki Kec Cimahi Utara Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Kamis 30 januari 2020,sekira pukul 22.30 Wib Terlapor bersa,ma Bapaknya TEJA THEOTIRTA (KOH ATIK) kerumah pelapor di komp setra Duta M6 No 4 7/9 Kel Pasirkaliki Kec Cimahi Utara Kota Cimahi.renovasi Finisshing rumah bs dibantu untuk menyelesaikan,dan malam it pun langsung kl menyelesaikan finishing seharga rp 300.000.000,- (tiga ratus juta rupiah) dan waktu berjalan sampai bulan februari 2021 finishhing yang dijanjikan tidak selesai dan masih banyak kekurangan,dan biaya yang dikeluarkan pe;lapr memebengkak menjadi Rp 492.500.000,- (empat ratus juta Sembilan puluh dua juta lima ratus ribu rupiah),dan terlapor beserta bapaknya tidak pernah memberikan rab serta Rincian pengeluaran pelapor atas kejadian tersebut pelapor mengalami kerugian sebesar Rp 314.000.000,- (tiga ratus empat belas juta rupiah) dan melaporkan kejadian tersebut ke polres Cimahi untuk pengusutan lebih lanjut.</t>
+  </si>
+  <si>
+    <t>LIBRIYENNIE THEOTIRTA Perempuan Gunung batu the maple Kav 8 sukaraja cicendo</t>
+  </si>
+  <si>
+    <t>378 &amp;/ 372 KUHP/BRIPKA DOHAR BACIN, SH.</t>
+  </si>
+  <si>
+    <t>B/712/VIII/2023/2023-08-21 17:00:00</t>
+  </si>
+  <si>
+    <t>ANDI
+3206021112980001
+Tasikmalaya, 11 Desember 1998
+Laki-laki
+Karyawan Swasta
+Kp. Petakan Rt. 005 Rw. 003 Ds. Sarimukti Kec. Karangnunggal
+Kab. Tasikmalaya.
+085871171049
+Islam
+SMK
+Indonesia/Jl. Cibaligo GG Medan Jaya No. 2 Rt. 003 Rw. 029 Kel. Cibeureum</t>
+  </si>
+  <si>
+    <t>Hari Selasa Tanggal 22 Agustus 2023, sekira Jam 02.30 Wib, di Jl. Cibaligo GG Medan Jaya No. 2 Rt. 003 Rw. 029 Kel. Cibeureum Kec. Cimahi Selatan Kota Cimahi, telah terjadi tindak pidana Pencurian dengan pemberatan kendaraan R-2 Merk HONDA BEAT, No.Pol: Z- 3653-RO, Warna Biru Hitam, Tahun 2021, No Ka MH1JM9115MK573551, No.Sin JM91E1573302, No BPKB Q- 07332142, atas nama Pelapor, kejadian tersebut terjadi ketika kendaraan R-2 tersebut di parkir oleh pelapor/korban di TKP dalam keadaan terkunci Stang, di duga terlapor menggunakan kunci palsu/astag karena kunci asli masih berada di tanagn pelapor/korban, akibat kejadian tersebut korban/pelapor mengalami kerugian materi kurang lebih sebesar Rp. 18.000.000,- (delapan belas juta rupiah) dan selanjutnya melaporkan kepolres Cimahi guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>363 KUHPidana/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/710/VIII/2023/2023-08-21 17:00:00</t>
+  </si>
+  <si>
+    <t>MOCHAMAD BAGUS PRIBADI SULAIMAN
+3273061907020004
+Bandung 19-07-2002 Laki-Laki
+Karyawan Swasta
+JI Jatayu I No 33/72 02/05 Kel Husein Sastranegara Kec Cicendo Kota Bandung
+08986042723
+Islam
+SMK Indonesia/Kp Cisangkan Girang Gg Uman No 69 04/10 Kel Padasuka Kec Cimahi Tengah</t>
+  </si>
+  <si>
+    <t>Pada Hari Selasa Tanggal 22 Agustus 2023 Pukul 04.00 Wib..Di Kp Cisangkan Girang Gg Uman No 69 04/10 Kel Padasuka Kec Cimahi Tengah Kota Cimahi Telah Terjadi Tindak Pidana Pencurian dengan Pemberatan yaitu 1 (satu) unit Sepeda motor No Pol D-2193-ACA,Merk Honda Vario, Thn 2018,Wama Merah,No Ka MH1JM5111JK109662,No Sin JM51E1109541,No Bpkb 0-4994518 An Pemilik ARIP HIDAYATULLOH.Yang dilakukan oleh terlpor (lidik) yang diparkir / disimpan di dalam halaman/teras rumah dalam keadaan terkunci stang / dikunci penutup dan tidak ada kunci tambahan serta kunci asli masih ada.yang diketahui pertama kali oleh ibu korban/pelpor bangun dikarenakan ada suara knalpot di depan rumah dan melihat 1 (satu) kendaraan sudah tidak ada ditempat atas kejadian tersebut Pelapor / Korban mengalami kerugian Rp. 15.000.000 (lima belas juta rupiah) dan selanjutnya melaporkan ke polres Cimahi Guna Pengusutan lebih Lanjut</t>
+  </si>
+  <si>
+    <t>363 KUHP/AIPDA EKA PRATAMA|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/721/VIII/2023/2023-08-23 17:00:00</t>
+  </si>
+  <si>
+    <t>NIKA ARCADYA(L)
+3277012402950002
+Sampit, 24-02-1995
+Kary Swasta
+Cijerah II Blok 16 No 96 Rt 02 Rw 033 Melong Cimahi Selatan Kota Cimahi
+081221817407
+Islam/JL.Di Kontrakan Her Suparman Gg Eyang Jameng VII I. Sentral Rt 01 Rw 05 Kel. Cibabat Cimahi Utara Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Kamis tanggal 24 Agustus 2023 sekitar jam 04.00 wib JI.Di Kontrakan Heri Suparman Gg Eyang Jameng VII jl. Sentral Rt 01 Rw 05 Kel. Cibabat Cimahi Utara Kota Cimahi, telah terjadi dugaan tindak pidana pencurian 1 unit kendaraan R2 Merek Yamaha No Pol: D 3098 SBM tahun 2019 wama ABU- ABU No.Ka MH3SG3190KJ783959 No Sin: G34E1736006 No BPKB: P 07878172 Stnk a.n. FRISHA FRIANDANY, yang dilakukan oleh orang tidak dikenal dengan cara pelaku mengambil sepeda motor korban Kendaraan yang parkir depan kontrakan kendaraan dalam keadaan terkunci stang, Akibat peritiwa tersebut korban dirugikan sebesar Rp.30.000.000,- (tiga puluh juta rupiah). selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih lanjut</t>
+  </si>
+  <si>
+    <t>363 KUHP/BRIPKA DOHAR BACIN, SH.|BRIGADIR YEPPI SEPTIYANDI, SH.</t>
+  </si>
+  <si>
+    <t>SP2HP Tgl. 08/08/2023 NIKA ARCADYA</t>
+  </si>
+  <si>
+    <t>B/720/VIII/2023/2023-08-22 17:00:00</t>
+  </si>
+  <si>
+    <t>YOEL WISNU SARJONO
+3217061607940003 Bandung, 16 Juli 1994
+Laki-laki
+Wiraswasta
+PCI 2 Blok A3 No 6 Rt 01 Rw 18 Desa Tanimulya Kec Ngamprah Kab Bandung Barat
+089509814225
+Kristen
+SMK Indonesia/Taman Jajanan 18 JI Somawinata No 87 Desa Tanimulya Kec Ngamprah Kab. Bandung Barat</t>
+  </si>
+  <si>
+    <t>Pada hari Selasa tanggal 22-08-2023 Sekira jam 17.30 Wib di Taman Jajanan 18 JI Somawinata No 87 Desa Tanimulya Kec Ngamprah Kab Bandung Barat, diduga telah terjadi pidana Penipuan dan Penggelapan 1(satu) Unit Kendaraan R2 Merk Honda Revo Fit NF11T11C01 M/T, No Pol D 3416 UBX, Tahun 2014, 110 cc, wama Hitam, No Ka MH1JBK116EK143932, No Sin JBK1E1143926, STNK An MARYA PRANSISKA, Alamat JI Kiansantang No 25 Rt 02 Rw 16 Tanimulya Ngamprah, yang diduga dilakukan oleh terlapor sdr TERI Alias ERI Alias BOE, Dengan cara terlapor meminjam motor pelapor dengan alasan akan pergi ke tempat kerja kakaknya (Sdr TORO), di kolam renang Tirta Mulya yg berjatak kurang lebih 500 m atau 2 atau 3 menit perjalanan, tapi hingga saat ini terlapor tidak mengembalikan motor tersebut, akibat dari kejadian tersebut pelapor mengalami kerugian sebesar kurang lebih Rp 5.000.000,-(Lima Juta Rupiah), melaporkan kejadian tersebut ke kantor kepolisian Resor Cimahi )</t>
+  </si>
+  <si>
+    <t>TERI alias ERI alias BOE</t>
+  </si>
+  <si>
+    <t>378 &amp;/372 KUHP/AIPDA EKA PRATAMA|BRIPKA EKO YOHAN SETIONO, Spd.</t>
+  </si>
+  <si>
+    <t>B/718/VIII/2023/2023-08-22 17:00:00</t>
+  </si>
+  <si>
+    <t>DARWATI (P)
+1906046208800005
+Tegal, 22 Agustus 1980
+IRT
+Kp. Mekarsari Rt. 02 Rw. 07 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi
+089658692714
+Islam :SMA
+Indonesia/di Gang samping rumah Kp. Mekarsari Rt. 02 Rw. 07 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Minggu tanggal 20 Agustus 2023 sekira jam 11.30 Wib di Gang samping rumah Kp. Mekarsari Rt. 02 Rw. 07 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi, telah terjadi Tindak Pidana pencurian kendaraan R2 merk Honda D1B02N26L2 A/T (Beat), No. Reg: D 4789 SBB, tahun 2017, warna Putih, 110 CC, No. Rangka: MH1JFZ114HK824463, No. Mesin: JFZ1E1836825, STNK an. DARWATI, alamat Kp. Mekarsari Rt. 02 Rw. 07 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi, awal Awal mula kejadian Pelapor memarkirkan sepeda motor R2 tersebut di gang samping rumah dalam keadaan dikunci stang dan lubang kunci ditutup, kemudian sepeda motor di tinggalkan Pelapor untuk mengikuti kegiatan perlombaan 17 Agustus, sekira pukul 16.30 Wib, sewaktu akan digunakan, sepeda motor tersebut sudah tidak ada/Hilang, diduga telah ada yang mencuri, dengan kejadian tersebut Pelapor mengalami kerugian Sebesar Rp. 12.000.0000,- (dua puluh satu juta rupiah) selanjutnya Pelapor melaporkan ke Polres Cimahi untuk pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>363 KUHP/AIPDA EKA PRATAMA|BRIGADIR YEPPI SEPTIYANDI, SH.</t>
+  </si>
+  <si>
+    <t>B/717/VIII/2023/2023-08-22 17:00:00</t>
+  </si>
+  <si>
+    <t>NADILA DWI SYAFIQAH
+3217076001000013
+Bekasi, 20-01-2000
+Kary Swasta
+Kp. Cibonteng Rt. 04/01 Ds. Sumur Bandung Kec. Cipatat Kab. Bandung Barat
+082120477212/Di kosan Pondok Zaitun kp. Girimekar Jaya No. 3 Rt. 05 Rw. 15 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada Hari Rabu Tanggal 23 Agustus 2023 jam 05.30 Wib Di kosan Pondok Zaitun kp. Girimekar Jaya No. 3 Rt. 05 Rw. 15 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi,, Telah terjadi dugaan tindak pidana Pencurian 1 unit kendaraan R2 Merk Honda Beat tahun 2020, wama Biru Putih, No.Pol: D-6595-UED, No.Ka MH1JM8114LK057223, No.Sin: JM81E1057274,no BPKB P 08257819 STNK an. HARRY PRATOMO WINANTO, alamat Kp. Cibonteng Rt. 04 Rw. 01 Sumur Bandung Kec. Cipatat Kab. Bandung Barat, yang dilakukan oleh pelaku dengan cara terlebih dahulu membuka gembok pintu pagar kosan, setelah pintu terbuka kemudian pelaku mengambil 1 (satu) unit sepeda motor yang terpakir dihalaman kosan dengan mengangkat garpu bagian depan kendaraan dan mendorong keluar kosan setelah itu pelaku diduga menjebol lubang kunci kendaraan menggunakan kunci palsu (astag) dikarenakan posisi kendaraan dalam keadaan terkunci stang dan kunci cakram atas kejadian tersebut pelapor mengalami kerugian Sebesar Rp 18.000.000 (Delapan Belas juta rupiah) dan selanjutnya melaporkan kepada pihak kepolisian guna pengusutan lebih lanjut.</t>
+  </si>
+  <si>
+    <t>363 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/716/VIII/2023/2023-08-22 17:00:00</t>
+  </si>
+  <si>
+    <t>MELI YULIANTI
+3217154403980014
+Bandung, 04 Maret 1998
+Kp. Selaawi Rt.03 Rw.011 Desa Bunijaya Kec.Gununghalu Kab.Bandung barat
+081321497198/085795739502
+Islam
+SMK
+Indonesia/di Komplek cibaligo permai 2 Rt.05 Rw.02 Desa Cihanjuang Kec. Parongpong Kab.Bandung barat</t>
+  </si>
+  <si>
+    <t>Pada hari Senin dini hari tanggal 21 Agustus 2023 sekira jam 03.00 Wib di Komplek cibaligo permai 2 Rt.05 Rw.02 Desa Cihanjuang Kec. Parongpong Kab.Bandung barat, telah terjadi Tindak Pidana pencurian dan Pemberatan kendaraan R2 merk HONDA F1C02N46L0A/T dengan nopol D 2531 UFA warna hitam silver, tahun 2023, noka MH1JM0315PK338127, nosin JMO3E1338060, STNK atas Pelapor, awal mula kendaraan hilang di pinjam oleh soudara Pelapor An. Rustandi pada hari sabtu untuk bekerja proyek di TKP namun pada hari senin dini hari tanggal 21 Agustus 2023 kendaraan yang palkir di halaman rumah sudah tidak ada/hilang serta pagar yang di kunci gembok hilang di duga di rusak, dengan kejadian tersebut Pelapor mengalami kerugian Sebesar Rp. 21.000.0000,- (dua puluh satu juta rupiah) selanjutnya Pelapor melaporkan ke Polres Cimahi untuk pengusutan lebih lanjut.</t>
+  </si>
+  <si>
+    <t>363 KUHP/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/722/VIII/2023/2023-08-23 17:00:00</t>
+  </si>
+  <si>
+    <t>DIMAS RIZKY AKBAR
+317306300904003
+Bekasi,30-09-2004 LK
+Komplek Kodam Jaya K2 /41 Rt 004 Rw 005 Kel Kalideres Kec Kalideres
+085158883094
+Islam
+SMA /Sederajat Indonesia/Kosan Abah 15 Gg Abah Muhalim Jl Ciwaruga No. 15 A Rt 02 Rw 03 Kel Ciwaruga Kec. Parompong</t>
+  </si>
+  <si>
+    <t>Pada Hari Kamis Tgl 24 Agustus 2023 Pukul 04.45 Wib.. Di Kosan Abah 15 Gg Abah Muhalim J Ciwaruga No. 15 A Rt 02 Rw 03 Kel Ciwaruga Kec Parompong. Telah terjadi Tindak Pidana Pencurian R2. dengan No Polisi: B 5890 BIW, Merek / Wama: Yamaha XSR-Merah Tahun 2023, No Ka: MH3RG4760PK060207, No Sin: G3S7E0069619, No BPKB: U00148040, an kepemilikan: Dimas Rizky Akbar.Terlapor mengambil barang berupa R2 dihalaman depan halaman kosan yang dimana saat korban hendak hendak keluar dari kosan kurang lebih pukul 05.30 didapati motor sudah tidak ada di depan halaman kosan atas kejadian tsb korban mengalami kerugian Rp 37.000.000,- (Tiga puluh Juta Rupiah) atas kejadian tersebut Pelapor selanjutnya melaporkan ke polres Cimahi Guna Pengusutan lebih Lanjut.-</t>
+  </si>
+  <si>
+    <t>B/724/VIII/2023/2023-08-23 17:00:00</t>
+  </si>
+  <si>
+    <t>HILFI ZAIDAN
+3203070605000011
+Cianjur 06-05-2000
+Pelajar/Mahasiswa
+JI Didi Prawirakusuma No 110 B Rt 002 Rw 007 Kel Sukamanah Kec Karang Tengah
+08999394000
+Islam
+SMA /Sederajat
+Indonesia/Kosan Wisma Alam,JI Ibu Ganirah No 64 Rt 05 Rw 02 Kel Cibeber Kec Cimahi Selatan</t>
+  </si>
+  <si>
+    <t>Pada Hari Kamis Tgl 24 Agustus 2023 Pukul 04.00 Wib.. DiKosan Wisma Alam,JI Ibu Ganirah No 64 Rt 05 Rw 02 Kel Cibeber Kec Cimahi Selatan Telah terjadi Tindak Pidana Pencurian R2 dengan No Polisi: F 3227 WAK, Merek / Wama: Yamaha WR155-Hitam Tahun 2021,No Ka: MH3DG3710MK014285, No Sin: G3NGE0015638, No BPKB R-00997338, an kepemilikan :N. SUGIANTI yang dimana sebelumnya motor tersebut dipakai oleh teman korban dan diparkir dihalaman kosan korban pada saat Terlapor hendak memakai motor tersebut pada pukul 08.00 Wib didapati motor sudah tidak ada di area parkir depan kosan atas kejadian tsb korban mengalami kerugian Rp.40.000.000,- (Empat puluh Juta Rupiah) atas kejadian tersebut Pelapor selanjutnya melaporkan ke polres Cimahi Guna Pengusutan lebih Lanjut.</t>
+  </si>
+  <si>
+    <t>363 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPKA DOHAR BACIN, SH.</t>
+  </si>
+  <si>
+    <t>SP2HP Tgl. 08/08/2023 HIZFI ZAIDAN</t>
+  </si>
+  <si>
+    <t>B/646/VII/2023/2023-07-28 17:00:00</t>
+  </si>
+  <si>
+    <t>SRI MULYANI
+3604154507710009
+Purwakarta, 05-07-1971
+Perempuan IRT
+Kp. Lebak Rt. 004 Rw. 002 Ds. Songgomjaya Kec. Cikande Kab. Serang
+0781316598573
+Islam SMA/Komp Permata Regency Jl. Anyeulir No. 14 RL. 002 Rw. 010 Kel. Cibabat Kec. Cimahi Utara Kota Cimahi.</t>
+  </si>
+  <si>
+    <t>Hari Sabtu Tanggal 29 Juli 2023, sekira Jam 06.00 Wib, di JKomp Permata Regency Jl. Anyeulir No. 14 Rt. 002 Rw. 010 Kel. Cibabat Kec. Cimahi Utara Kota Cimahi, telah terjadi tindak pidana Pencurian dengan pemberatan kendaraan R-2 Merk HONDA Beat No.Pol D-3166-SBT, Warna Putih, Tahun 2023, No.Ka : MH1JM9129PK667638, No Sin: JM91E2665155, No BPKB T- 03400488, atas nama TARMINI, kejadian tersebut terjadi ketika kendaraan R-2 tersebut di parkir oleh pelapor/korban di Grasi depan rumah yang ada pagarnya, dan saat itu tertapor di duga menggunakan kunci palsu karena kunci asli masih berada di tangan pelapor/korban, akibat kejadian tersebut korban/pelapor mengalami kerugian materi kurang lebih sebesar Rp. 20.000.000,- (dua puluh juta rupiah) dan selanjutnya melaporkan kepolres Cimahi guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>LI/395/VI/2023/2023-06-15 17:00:00</t>
+  </si>
+  <si>
+    <t>YAN AMINUDIN
+331080306690001
+Tegal, 03 Juli 1969
+Laki-laki
+Islam
+SMA
+Wiraswasta
+Indonesia
+Kp.Winong Rt.04 Rw.02 Desa Kragilan Kec.Mojolaban Kab. Sukoharjo Propinsi Jawa Tengah
+081229808940/Jl. Raya awani no.33A Desa Cimareme Kec.Ngamprah Kab.Bandung barat</t>
+  </si>
+  <si>
+    <t>Pada hari Jum'at tanggal 29 April 2022 bertempat di kantor PT.JATRA NUSA ENERGI dengan alamat 31.Raya awani no.33A Desa Cimareme Kec.Ngamprah Kab.Bandung barat telah terjadi dugaan tindak pidana penipuan dan atau penggelapan. Awalnya korban melakukan kerjasama dengan Sdr.HILAL ABDILAH (terlapor) yang merupakan direktur utama PT.JATRA NUSA ENERGI, korban melakukan kerjasama atas pekerjaan proyek pembangunan pasar desa sirnajaya kecamatan gununghalu kab.bandung barat. Dimana korban dalam proyek pekerjaan pembangunan pasar desa simajaya merupakan investor/pemodal atas pekerjaan tersebut, yang mana korban telah menginvestasikan modal berupa uang tunal sebesar Rp 400.000.000,-(empat ratus juta rupiah). Korban yang pada saat itu ditawari pekerjaan oleh terlapor Sdr.HILAL ABDILAH atas proyek tersebut dengan keuntungan sebesar 10 s/d 15 %. Mendengar hal tersebut saya langsung tertarik dan menyepakati proyek tersebut, dengan pembayaran melalui transfer dari kantor saya di solo ke rekening terlapor Sdr.HILAL ABDILAH di nomor 1320025234593 (bank mandiri) an.teriapor. Setelahnya korban mentransfer modal kerjasama tersebut terlapor Sdr.HILAL ABDILAH berjanji akan mengembalikan uang modal tersebut paling lambat satu bulan saminggu (37 hari). Akan tetapi setelahnya jatuh tempo dan sudah melampaui batas waktu korban menyusul terlapor ke kantor PT. JATRA NUSA ENERGI di alamat tkp dan diberikan oleh terlapor satu lembar cek bank mandiri dengan nomor 382327 tanggal 29 April 2022 senilai 7 milyar rupiah sebagai jaminan, akan tetapi setelahnya cek tersebut dicairkan oleh korban ternyata ada penolakan dari bank dengan alasan limit saldo. Mengetahui hal tersebut korban membuat laporan pengaduan ke pihak polres cimahi untuk penyelidikan lebih lanjut</t>
+  </si>
+  <si>
+    <t>HILAL ABDILAH, Bandung/05-06-1986, Buruh Harian Lepas, Kp. Pasir Gandu Rt.04/001 Ds. Pasir Pogor Kec. Sindang kerta Kab. Bandung Barat</t>
+  </si>
+  <si>
+    <t>378 dan atau 372 KUHPidana/</t>
+  </si>
+  <si>
+    <t>Berkas di AIPTU Opar Sobakir</t>
+  </si>
+  <si>
+    <t>B/547/VI/2023/2023-06-27 17:00:00</t>
+  </si>
+  <si>
+    <t>CECEP WAHYUDIN
+3217120905990007
+Bandung, 09-05-1999
+Laki-laki
+Pelajar/Mahasiswa
+Kp. Cidahu Rt. 002 Rw. 003 Ds. Sarinagen Kec. Cipongkor Kab. Bandung Barat.
+083144242049
+Islam
+SMA/JI. Sanghyang Pancanaka Hill Rt. 004 Rw. 005 Kel. Cibeber Kec. Cimahi Selatan Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Hari JRabu Tanggal 28 Juni 2023, sekira Jam 03.00 Wib, di JJI. Sanghyang Pancanaka Hill Rt. 004 Rw. 005 Kel. Cibeber Kec. Cimahi Selatan Kota Cimahi, telah terjadi tindak pidana Pencurian dengan pemberatan kendaraan R-2 Merk HONDA SCOOPY, No.Pol: D-3669- UDV, warna Hitam, TAHUN 2019, No.Ka MH1JM3121KK614924, No.Sin: JM31E2611345, No BPKB: P-00959128, atas nama Pelapor kejadian tersebut terjadi ketika kendaraan R-2 tersebut di parkir di depan tempat parkir halaman rumah dalam keadaan terkunci Stang diduga terlapor (dalam Lidik) mengambil kendaraan R-2 tersebut menggunakan kunci palsu karena kunci asli masih berada di tangan pelapor/korban, akibat kejadian tersebut korban/pelapor mengalami kerugian materi kurang lebih sebesar Rp. 19.000.000,- (sembilan belas juta rupiah) dan selanjutnya melaporkan kepolres Cimahi guna pengusutan lebih lanjut.</t>
+  </si>
+  <si>
+    <t>B/667/VIII/2023/2023-08-04 17:00:00</t>
+  </si>
+  <si>
+    <t>SUMIATI
+3273156408020004
+Bandung, 24-08-2002
+Mahasiswa
+Cibuntu Selatan Rt 03 rw 07 Warung Muncang Kec. Bandung Kulon Kota Bandung
+089618576045
+: Islam : SMK/JL. Margaluyu Depo Bio Tirta Rt 06 Rw 02 Kec Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Jumat tanggal 04 Agustus 2023 sekitar jam 20.00 wib tempat kejadian JI. Margaluyu Depo Bio Tirta Rt 06 Rw 02 Kec. Cimahi Tengah Kota Cimahi telah terjadi dugaan bindak pidana pencurian 1 unit kendaraan R2 Merk Honda tahun 2022 wama Merah No.Pol D 4020 ADX No.Ka MH1JM8124NK086930 No.Sin: JM81E2088635, No BPKB T 00498664 Stnk an. SUMIATI yang dilakukan oleh orang tidak dikenal dengan cara pelaku mengambil sepeda motor korban pada saat diparkir dipinggir jalan depan Counter Handphone dalam keadaan terkunci stang dan lubang kunci tertutup, Akibat peritiwa tersebut korban dirugikan sebesar Rp.10.000.000,- (Sepuluh juta rupiah). selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih lanjut----</t>
+  </si>
+  <si>
+    <t>LI/07/I/2023/2023-01-09 17:00:00</t>
+  </si>
+  <si>
+    <t>YAYAN SETIYANA
+Bandung, 30 Mei 1980
+Karyawan Swasta
+Laki-Laki
+Islam Indonesia
+Kp. Sinarmukti Rt 002/004 Desa. Selacau Kec. Batujajar
+Kab. Bandung Barat 087823346740
+13217093005800006/PT WOM FINANCE yang beralamat di Jln. Sangkuriang No. 48 Kel Cipageran Kec. Cimahi utara Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Mengadukan tentang peristiwa dugaan tindak pidana Penggelapan dalam jabatan di PT WOM FINANCE yang beralamat di Jln. Sangkuriang No. 48 Kel Cipageran Kec. Cimahi utara Kota Cimahi yang dilakukan oleh pelaku Sdr. AHMAD RUSLAN selaku Karyawan Kontrak yang menjabat sebagai CMO (credit marketing officer), terhadap PT. WOM FINANCE yang beralamat di Jln. Sangkurang No. 48 Kel Cipageran Kec. Cimahi utara Kota. Cimahi, berupa 4 (empat) Unit Kendaraan Roda dua berbagai jenis dan merk diantaranya: 1 (satu) Unit Sepeda Motor merk HONDA ALL NEW SCOOPY FASION, warna hitam orange, tahun 2022, No Pol: D-5143-UEP, No Ka: MH1JM0111NK525364, No Sin: JN01S1524050, No BPKB: S04879340, atas nama SITI MARIAH Alamat Kp. Neglasan Rt 01/08 Desa. Singajaya, Kec. Cihampelas Kbb, 1 (satu) Unit Sepeda Motor merk YAMAHA GEAR 125 Type B3W A/T, warna merah, tahun 2022, No Pol: D-5572-UEQ, No Ka MH3SEG710NJ110860, No Sin: E32WE0146663, No BPKB: S05585269, atas nama YUSUP TRESNADI Alamat Kp. Radio Rt 02/01 Desa. Cililin Kec. Cililin Kab. Bandung Barat, 1 (satu) Unit Sepeda Motor merk YAMAHA GEAR 125 Type B3W A/T, warna hijau hitam, tahun 2022, No Pol: D-2295-UER, No Ka MH3SEG710NJ119591, No Sin: E32WE0155894, No BPKB S05972517, atas nama KUSMIATI Alamat Kp. Cinangsi Rt 01/02 Desa. Karangtanjung Kec. Cililin Kab. Bandung Barat. 1 (satu) Unit Sepeda Motor merk YAMAHA ALL NEW NMAX 155 NON ABS-86HB, warna biru, tahun 2021, No Pol: D-5505-UEK, No Ka: MH3SY5620MJ332890, No Sin: G3E8E0613068, No BPKB R00747462, atas nama DADAN SAEPUL ROHMAN Alamat Kp. Pasir peso Rt 01/05 Kel. Puncak sari Kec. Sindangkerta Kab. Bandung Barat, dengan cara awalnya saat itu pelaku merekrut para debitur dan bulan Februari 2022 sampai dengan bulan Juni 2022 untuk mengajukan kredit kendaraan tersebut diatas ke PT. WOM FINANCE dengan upah per orang rata-rata Rp. 2.000.000,- (dua juta rupiah) dan untuk pengajuannya semuanya di atur oleh pelaku dengan cara pengajuan aplikasi, survei ke lokasi debitur bahkan untuk uang DP (down payment) pun semuanya di tanggung oleh pelaku, dan setelah di setujui pengajuan kreditnya untuk kendaraan nya tidak di berikan kepada debitur akan tetapi oleh pelaku langsung di kuasai serta untuk angsuran rata-rata masuk ke PT. WOM FINANCE kurang lebih hanya 5 (lima) kali dan selanjutnya tidak di bayarkan kembali, hingga akhirnya pihak Collection melakukan penagihan ke alamat para debitur dan setelah dikunjungi untuk debitur tidak merasa melakukan kredit kendaraan yang dimaksud akan tetapi untuk data hanya di pinjam oleh pelaku dan untuk kendaraan pun di terimanya akan tetapi langsung di ambil oleh pelaku, yang pada saat itu di ketahui dari para debitur nya oleh pihak Collector bagian penagihan Pada Bulan September 2022 di daerah Kec. Cililin Kab. Bandung Barat, Akibat dan kejadian tersebut perusahaan mengalami kerugian sekitar Rp. 70.000.000,- (tujuh puluh juta rupiah) sebagaimana di maksud dalam Pasal 374 KUHP Tentang Penggelapan dalam jabatan-</t>
+  </si>
+  <si>
+    <t>Penggelapan dalam jabatan/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/592/VII/2023/2023-07-09 17:00:00</t>
+  </si>
+  <si>
+    <t>SALIMATUL IHSAN
+3217090501990009
+Bandung 05-01-1999 Laki-Laki
+Karyawan swasta
+Kp Citunjung 03/03 Ds Batujajar Timur Kec Batujajar Kbb 081321709983
+Islam/JI Sukamanah 01/07 Ds Lagadar Kec Margaasih Kab Bandung</t>
+  </si>
+  <si>
+    <t>Hari Jumat Tanggal 07-07-2023 Jam 18.40 Wib di areal pesawahan JI Sukamanah 01/07 Ds Lagadar Kec Margaasih Kab Bandung,-telah terjadi tindak pidana pencurian dengan Kekerasan.yang dilakukan oleh Terlapor (lidik) yang berjumlah 4 (empat) orang yang berawal dari korban / pelapor yang berjanjian dengan pelaku melalui akun Facebook untuk bertransaksi rokok tanpa cukai.kemudian bertemu di Tkp dengan 1 (satu) orng pelaku tiba-tiba datang sebuah mobil Sigra warna Putih No Pol D-1657-AHU,dan turun 3 (tiga Orang lalu salah seorang pelaku melakban mulut dan mengaku petugas dari bea cukai lalu korban dimasukkn ke dalam mobil,selanjutnya kendaraan R2 No Pol D-5988-UBI,Merk Honda, Thn 2013.Warna Putih Biru No Ka MH1JFB124DK185642,No Sin JFB1E2138000,No Bpkb-An Pemilik CHOIRUL SALEH.1 (satu) Unit Handphone Merk OPPO Type F9 No Imei 1 869597041577870 No Imei 2 869597041577862 Warna Biru Senja Beserta 50 (lima puluh) Slop Rokok Merk LOUIS Tanpa Cukai,milik korban dirampas oleh pelaku dan korban diturunkan di gate way Pasteur serta diberi uang sebesar Rp 50.000,-(lima puluh ribu rupiah) untuk ongkos pulang, akibat kejadian tersebut korban / pelapor mengalami kerugian sebesar Rp 8.500.000,-(Delapan juta lima ratus ribu rupiah), dan selanjutnya hari ini melaporkan kepolres Cimahi guna pengusutan lebih lanjut.-</t>
+  </si>
+  <si>
+    <t>Curas 365 KUHP/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LI/599/IX/2023/2023-09-06 17:00:00</t>
+  </si>
+  <si>
+    <t>AGUS SALIM SIREGAR Bin ILHAM MUDDIN SIREGAR
+Sigambal, 31 Desember 1997
+Laki-laki
+Wiraswasta
+Islam
+Indonesia
+Bangun Jadi Rt 02/06 Desa Kota Paret Kec Simpang Kanan Kab Rokan Hilir Prov Riau atau JI Manisi Gg mandiri No 27 B (kas kosan) Rt-/- Kel Cipadung Kec Cibiru Kota Bandung Nik 1407113112970003
+081268753609/di Jalan Cibisoro Desa Nanjung Kec Margaasih Kab Bandung</t>
+  </si>
+  <si>
+    <t>Saya mengadukan peristiwa dugaan tindak pidana penipuan dan atau penggelapan yang diketahui terjadi pada hari Rabu tanggal 28 Juni 2023 sekira jam 14.30 Wib di Jalan Cibisoro Desa Nanjung Kec Margaasih Kab Bandung, Dengan cara 2 orang pelaku berboncengan kemudian memepet kendaraan saya lalu meminta untuk berhenti dan setelah berhenti meminta untuk menunjukan STNK kendaraan, dimana pada saat itu juga datang 2 pelaku lainnya yang berboncengan setelah itu saya di tunjukan aplikasi dari handphonenya dimana dalam data aplikasi tersebut kendaraan yang saya gunakan tersebut terdapat tunggakan senilai Rp. 23.000.000, lalu setelahnya saya diberikan surat berita acara penitipan kendaraan dan saya diminta untuk mendatangi kantor FIF FINANCE untuk mengurus dan mengambil kendaraan, dimana setelah saya mendatangi kantor FIF FINANCE diketahui bahwa kendaraan tersebut tidak berada di sana dan isi dari surat berita cara penitipan tersebut tidak benar dan bukan dari pihak FIF FINANCE dan kendaraan tidak tercantum di FIF FINANCE</t>
+  </si>
+  <si>
+    <t>378 dan atau 372 KUHP/BRIPKA DOHAR BACIN, SH.|BRIGADIR YEPPI SEPTIYANDI, SH.</t>
+  </si>
+  <si>
+    <t>B/767/IX/2023/2023-09-04 17:00:00</t>
+  </si>
+  <si>
+    <t>WILDAN ADITIA RAHMADI
+3277022504960011
+Cimahi, 25-04-1966
+Buruh
+Kp. Babakan Sari Rt 08 Rw 09 Padasuka Cimahi Tengah Kota Cimahi 08977788660
+Islam
+SMA sederjat/Kp. Babakan Sari Rt 08 Rw 09 Padasuka Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Selasa tanggal 29 Agustus 2023 sekitar jam 04.30 wib tempat kejadian Kp. Babakan Sari Rt 08 Rw 09 Padasuka Cimahi Tengah Kota Cimahi telah terjadi dugaan tindak pidana pencurian 1 unit kendaraan R2 Merek Honda No Pol: Z 6898 MN tahun 2017 warna Hitam putih biru No.Ka MH1JM3111HK141381, No.Sin: JM31E1146141 No BPKB: N 07952045 Stnk a.n. EEN SUHENDA, yang dilakukan oleh orang tidak dikenal dengan cara pelaku mengambil sepeda motor Korban Kendaraan yang parkir dihalaman luar rumah kendaran dalam keadaan terkunci stang. Akibat peritiwa tersebut korban dirugikan sebesar Rp.9.000.000,- (sembilan juta rupiah), selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih</t>
+  </si>
+  <si>
+    <t>363 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIGADIR YEPPI SEPTIYANDI, SH.</t>
+  </si>
+  <si>
+    <t>SP2HP/1627/IX/23, Tgl. 11/9/23 An. WILDAN ADITIA RAHMADI</t>
+  </si>
+  <si>
+    <t>SP.GAS/LIDIK/1318/IX/2023</t>
+  </si>
+  <si>
+    <t>B/770/IX/2023/2023-09-04 17:00:00</t>
+  </si>
+  <si>
+    <t>CECEP IRPAN APRIADI
+3206332504930001
+Bandung, 25-04-1993
+Kary Swasta
+Kp. Cilember Rt 03 Rw 06 Cigugur Tengah Cimahi Tengah Kota Cimahi 085323950111
+Islam
+SMK : Indonesia/Kp. Cilember No 271 Rt 03 Rw 06 Cigugur Tengah Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Senin tanggal 04 September 2023 sekitar jam 14.20 wib tempat kejadian Kp. Cilember No 271 Rt 03 Rw 06 Cigugur Tengah Cimahi Tengah Kota Cimahi telah terjadi dugaan tindak pidana pencurian 1 unit kendaraan R2 Merek Honda No Pol: D 2015 SBE tahun 2018 wama Coklat Hitam No.Ka MH1JM3110JK502959, No.Sin: JM31E1506457, No BPKB: N 06194821 Stink an. MEITA ANDRIANI yang dilakukan oleh orang tidak dikenal dengan cara pelaku mengambil sepeda motor korban Kendaraan yang parkir dipinggir jalan kendaran dalam keadaan terkunci stang. Akibat peritiwa tersebut korban dirugikan sebesar Rp.14.000.000,- (Empat belas juta rupiah). selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih lanjut</t>
+  </si>
+  <si>
+    <t>SP2HP/1628/IX/23, Tgl. 11/9/23, An. CECEP IRPAN APRIADI</t>
+  </si>
+  <si>
+    <t>SP.GAS/LIDIK/1319/IX/23</t>
+  </si>
+  <si>
+    <t>LI/429/VII/2023/2023-07-03 17:00:00</t>
+  </si>
+  <si>
+    <t>3273020703930010
+RAMDHAN AKBARI Bin JUMAWAN
+Bandung, 07 Maret 1993
+Karyawan BUMN
+Islam
+Laki-laki
+Komplek Nusa Hijau Blok A No.16 RL003 Rw.016 Kel. Citeureup Kec. Cimahi Utara Kota Cimahi.
+081224479763/Jl. Raya Padalarang-Cisarua Km.2 Komplek Pemda Desa Mekarsari Kec. Ngamprah Kab. Bandung Barat</t>
+  </si>
+  <si>
+    <t>Pada hari Kamis tanggal 15 Juni 2023 sekira jam 21.00 wib, Saya datang ke kantor Kepolisian Polres Cimahi untuk mengadukan tentang peristiwa dugaan tindak pidana penipuan dan atau penggelapan yang diketahui pada hari Kamis tanggal 10 Februari 2022 di Jl. Raya Padalarang - Cisarua KM.2 Komplek Pemda Desa Mekarsan Kec. Ngamprah Kab. Bandung Barat, dengan cara terlapor yang bemama Sdr. AHMAD FATONI menawarkan Proyek Pengadaan Barang atau Jasa di Pemerintahan Kota Cimahi dengan menjanjikan keuntungan 7-10 % dari jumlah modal yang diserahkan dalam jangka waktu sebulan modal beserta keuntungan akan diberikan, hingga akhimya saya tertarik dan menyerahkan uang sebesar Rp. 400.000.000,- (empat ratus juta rupiah) kepada terlapor, namun apa yang dijanjikannya tidak terealisasi dan setelah dikonfirmasi ke Pihak Pemerintahan Kota Cimahi ternyata proyek tersebut tidak ada dan sampai saat ini terlapor tidak mengembalikan modal tersebut. Maka dengan adanya kejadian tersebut korban mengalami kerugian sebesar Rp. 400.000.000,- (empat ratus juta rupiah).</t>
+  </si>
+  <si>
+    <t>AHMAD FATONI PNS 3277010101810122</t>
+  </si>
+  <si>
+    <t>Penipuan &amp; Penggelapan /BRIPKA EKO YOHAN SETIONO, Spd.|BRIPKA HERDIANSYAH. SH.|BRIPKA DOHAR BACIN, SH.</t>
+  </si>
+  <si>
+    <t>Limpah berkas ke Penyidik baru</t>
+  </si>
+  <si>
+    <t>B/768/VIII/2023/2023-08-07 17:00:00</t>
+  </si>
+  <si>
+    <t>KARNA PUJI
+3277020303650001
+Cimahi 03-03-1956
+Laki-Laki
+Wiraswasta
+Jl Raya Barat No 702 Cisangkan girang 01/02 Kel Padasuka Kec Cimahi Tengah Kota Cimahi
+08122333023
+Kristen
+S1 (Benjazah)/Kantor BCA Kcp Cimahi jl Raya Cimahi No 533 Kel Karangmekar kec  2 Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Hari Selasa 27-06-2023,Sekitar jam 12.00 Wib,dikantor BCA Kep Cimahi jl. Raya Cimahi No 533 Kel Karangmekar kec Cimahi Tengah Kota Cimahi, Telah Terjadi Tindak pidana Penipuan dan atau Penggelapan yang dilakukan oleh tertapor terhadap korban/pelapor dengan mengajak kerja sama pengiriman batu makadam untuk peng urugan di proyek Angkasa pura terminal 3 Soekamo Hatta dengan dijanjikan keuntungan setiap ritsebesar Rp 300.000,-(tiga ratus ribu rupiah) hingg ahirnyta korba atau pelapor setuju tertarik dan masalah pengiriman batu diurus oleh salah 1 orang terlapor adalah sdra BUDI lalu memberikan sejumlah uang sebesar 96.000.000,- (sembilan puluh enam juta rupiah) untuk pengiriman batu makadam sebanyak 30 rit dengan pembayaran akan dilakukan dalam jangka paling lama seminggunamun ternyata tidak terealisasi,kemudian setelah ditagih terus menerus ahimya ke dua orang terlapor memberikan cok denga no DU 204128 tanggal 20 Juni 2023 senilai Rp 60.000.000,- dan Rp 40.500.000,- yang ditanda tangani dan dicap selaku direktur SBM (serang berkah Mandiri) namun pada saat akan dicairkan ternyata dana tidak cukup.maka atas kejadian tersebut korban/pelapor mengalami kerugian sebesar Rp 96.000.000,-(sembilan puluh enam juta rupiah) dn melaporkan kejadian tersebut ke polres cimahi guna pengusutan lebih lanjut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. BUDI IRNAWAN, Alamat  Perum pondok permai lestari Blok D2 No 4 05/11 Ds. Panenjoan Kec. Cicalengka Kab. Bandung  2. ISBANDI.S.SOS.M.SI JI Let Jidun No 5 02/12 Ds Lontar baru Kec  serang Kota Serang </t>
+  </si>
+  <si>
+    <t>Pasal 378 Jo 372 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPKA HERDIANSYAH. SH.|BRIPKA DOHAR BACIN, SH.</t>
+  </si>
+  <si>
+    <t>Berkas di bawa AIPTU OPAR SOBAKIR</t>
+  </si>
+  <si>
+    <t>LPB/786/1X/2023/2023-09-10 17:00:00</t>
+  </si>
+  <si>
+    <t>B/423/V/2023/2023-05-23 17:00:00</t>
+  </si>
+  <si>
+    <t>MUMUH DEDI ISKANDAR
+13277022105650011
+Bandung, 21-05-1965 Laki-laki
+PNS JL. Margamulya No. 144 Rt. 006 Rw. 001 Kel. Cimahi Kec. Cimahi Tengah Kota Cimahi
+082118517433/Jl. Terusan SMP Pasundan 2 Kel. Cimahi Tengah Kec. Cimahi Tengah Kota  Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Senin Tanggal 22 Mei 2023, sekira jam 19.30 Wib, di Jl. Terusan SMP R-2 Pasundan 2 Kel. Cimahi Tengah Kec. Cimahi Tengah Kota Cimahi, diduga telah terjadi Penipuan dan atau Penggelapan kendaraan R-2 Merk HONDA BEAT, No.Pol. D- 2638-SBP wama Hitam, tahun 2021, No.Ka: MH1JM8113MK654431, No.Sin JM81E1656396, atas nama Pelapor, pelaku (Lidik) sebanyak 2 (dua) orang laki-laki melakukan perbuatan tersebut dengan cara memberhentikan pelapor/korban dengan mengaku bahwa terlapor dari pihak leasing BCA dan menanyakan bahwa kendaraan R-2 tersebut menunggak dalam cicilan dan terlapor siap membantu, selanjutnya pelapor/korban dibawa untuk membeli materi dan setelah di depan toko Foto Copy pelapor/korban di suruh turun dari kendaraan R-2 tersebut untuk membeli materi kemudian setelah pelapor/korban turun dari kendaraan R-2 tersebut, terlapor langsung melarikan diri, atas kejadian tersebut korban mengalami kerugian materi sebesar kurang lebih Rp. 18.000.000,- (delapan belas juta rupiah), kemudian Pelapor / korban melaporkan kejadian tersebut ke kantor kepolisian guna pengusutan lebih lanjut.- SAKSI-SAKSI:</t>
+  </si>
+  <si>
+    <t>378 dan atau 372/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/732/VIII/2023/2023-08-26 17:00:00</t>
+  </si>
+  <si>
+    <t>ASEP KURNIA
+3277021210860011 Cimahi, 12-10-1980
+Karyawan Swasta
+Kp. Citaman Rt. 003 Rw. 004 Kel. Cigugur Tengah Kec. Cimahi Tengah Kota Cimahi
+081220886669
+Islam SMP/Kp. Citaman Rt. 003 Rw. 004 Kel. Cigugur Tengah Kec. Cimahi  Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Hari Minggu Tanggal 27 Agustus 2023, sekira Jam 04.30 Wib, di Kp. Citaman Rt. 003 Rw. 004 Kel. Cigugur Tengah Kec. Cimahi Tengah Kota Cimahi, telah terjadi tindak pidana Pencurian dengan pemberatan kendaraan R-2 Merk HONDA Vario, No. Pol: D-4091-SBK Warna Merah, Tahun 2019, No.Ka: MHJM4114KK446211, No. Sin JM41E1445928, No.BPKB: P-01151432, atas nama Pelapor, kejadian tersebut terjadi ketika kendaraan R-2 tersebut di parkir oleh pelapor/korban di dalam Gerasi/Gudang dalam keadaan terkunci Stang, di duga terlapor menggunakan kunci palsu/astag karena kunci asli masih berada di tanagn pelapor/korban, akibat kejadian tersebut korban/pelapor mengalami kerugian materi kurang lebih sebesar Rp. 23.000.000,- (dua puluh tiga juta rupiah) dan selanjutnya melaporkan kepolres Cimahi guna pengusutan lebih lanjut.</t>
+  </si>
+  <si>
+    <t>ANAK RENDY AGUSTIAN Als. REN bin HENDAR, Lahir di Garut Tanggal 7 September 2008, Islam, Laki-laki, Pelajar, Alamat Kp. Citaman Kel. Cigugur Tengah Kec. Cimahi Tengah Kota Cimahi - ANAK ANDHIKA CHANDRA MAULANA Als. ENDA bin DIKA, Cimahi Tanggal 16 Mei 2006, Islam, Laki-laki, Pelajar, Alamat Jalan Pelangi RT 02 RW 04 Kel. Cigugur Tengah Kec. Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>363 KUHPidana/AIPDA EKA PRATAMA|BRIPKA DOHAR BACIN, SH.|BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>Tahap 1
+Tahap 2 Tgl. 14/9/23</t>
+  </si>
+  <si>
+    <t>Anak</t>
+  </si>
+  <si>
+    <t>B/737/VIII/2023/2023-08-27 17:00:00</t>
+  </si>
+  <si>
+    <t>SILVAN ALAMSYAH
+3217060309000008
+Bandung, 03-09-2000
+Karyawan Swasta
+Kp. Cijerah Rt. 003 Rw. 004 Ds. Tanimulya Kec. Ngamprah Kab.
+Bandung Barat.
+089614451810/Kp. Cijerah Rt. 003 Rw. 004 Ds. Tanimulya Kec. Ngamprah Kab.  Bandung Barat</t>
+  </si>
+  <si>
+    <t>Hari Sabtu Tanggal 26 Agustus 2023, sekira Jam 05.00 Wib, di Kp. Cijerah Rt. 003 Rw. 004 Ds. Tanimulya Kec. Ngamprah Kab. Bandung Barat, telah terjadi tindak pidana Pencurian dengan pemberatan kendaraan R-2 Merk HONDA CRF, No.Pol: D-2733-UDU, Warna Hitam, Tahun 2019, No.Ka MH1KD1110KK062543, No.Sin KD11E1061753, No.BPKB: O-05519295, atas nama PUNGKAS IRGI RAHMADA, kejadian tersebut terjadi ketika kendaraan R-2 tersebut di parkir oleh pelapor/korban di halaman depan rumah korban dalam keadaan terkunci Stang, di duga terlapor menggunakan kunci palsu/astag karena kunci asli masih berada di tanagn pelapor/korban, akibat kejadian tersebut korban/pelapor mengalami kerugian materi kurang lebih sebesar Rp. 27.000.000,- (dua puluh tujuh juta rupiah) dan selanjutnya melaporkan kepolres Cimahi guna pengusutan lebih lanjut.</t>
+  </si>
+  <si>
+    <t>363 KUHPidana/BRIPKA DOHAR BACIN, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>SP2HP Tgl. 08/08/2023</t>
+  </si>
+  <si>
+    <t>B/738/VIII/2023/2023-08-27 17:00:00</t>
+  </si>
+  <si>
+    <t>MUHAMAD AZRIEL AGUSTIAN
+3277020808010001
+Cimahi, 08-08-2001
+Pelajar/Karyawan Swasta
+Kp. Cigugur Tengah Rt. 003 Rw. 008 Kel. Cigugur Tengah Kec.
+Cimahi Tengah Kota Cimahi.
+083122730960/Kp. Cigugur Tengah Rt. 003 Rw. 008 Kel. Cigugur Tengah Kec. Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Hari Senin Tanggal 28 Agustus 2023, sekira Jam 05.30 Wib, di Kp. Cigugur Tengah Rt. 003 Rw. 008 Kel. Cigugur Tengah Kec. Cimahi Tengah Kota Cimahi, telah terjadi tindak pidana Pencurian dengan pemberatan kendaraan R-2 Merk HONDA CRF, No.Pol: D-3556-SBO, Warna Hitam, Tahun 2021, No.Ka: MH1KD1117MK197750, No.Sin KD11E1197159, No.BPKB: Q-07062925, atas nama Pelapor, kejadian tersebut terjadi ketika kendaraan R-2 tersebut di parkir oleh pelapor/korban di halaman depan rumah korban (Gerasi) dalam keadaan terkunci Stang, di duga terlapor menggunakan kunci palsu/astag karena kunci asli masih berada di tanagn pelapor/korban, akibat kejadian tersebut korban/pelapor mengalami kerugian materi kurang lebih sebesar Rp.35.000.000,- (tiga puluh lima juta rupiah) dan selanjutnya melaporkan kepolres Cimahi guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>363 KUHPidana/BRIPKA EKO YOHAN SETIONO, Spd.|BRIGADIR YEPPI SEPTIYANDI, SH.</t>
+  </si>
+  <si>
+    <t>LI/597/VIII/2023/2023-08-28 17:00:00</t>
+  </si>
+  <si>
+    <t>SYAEFUL BASHAR
+Bandung, 15 November 1993
+Buruh harian lepas
+Islam
+Indonesia
+Kp. Maroko Rt.01 Rw.02 Ds. Mekarjaya Kec. Cihampelas Kab. Bandung Barat
+087860531801/Jl. Baros Kel. Utama Kec. Cimahi Selatan Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Sumber menerangkan bahwa diketahui pada hari Rabu tanggal 12 April 2023 sekitar jam 11.30 WIB di Jl. Baros Kel. Utama Kec. Cimahi Selatan Kota Cimahi, telah terjadi dugaan tindak pidana Penipuan dan atau Penggelapan 1 (satu) unit kendaraan R.2 Merk Honda All New Beat Deluxe Cbs warna Silver, No. Pol: D- 3369-UEO, Noka: MH1JM9118MK939230, Nosin: JM91E1938897 STNK A.n SYIFA NURVAUZIAH, yang diketahui dengan cara terlapor (Dalam lidik) berjumlah 4 orang menggunakan kendaraan R.2 sebanyak 2 unit menghentikan kendaraan saya dengan menyalip dari sebelah kanan dan memarkirkan kendaraannya di depan kendaraan saya dan mengaku milik WOM Finance yang memberitahukan kendaraan R.2 saya menunggak 3 bulan dan terlapor mengambil paksa kunci kendaraan saya dan mengeluarkan berita acara penitipan kendaraan, ketika saya menerima surat tersebut terlapor langsung membawa kendaraan R.2 milik saya dan pada saat saya mengecek ke WOM Sangkuriang kendaraan R.2 pelapor tidak ada, atas adanya kejadian tersebut pelapor merasa tertipu dan mengalami kerugian sebesar Rp. 17.000.000,- (Tujuh Belas Juta Rupiah). Sebagaimana dimaksud dengan Pasal 378 dan atau 372 K.Ü.HPidana.</t>
+  </si>
+  <si>
+    <t>B/742/VIII/2023/2023-08-28 17:00:00</t>
+  </si>
+  <si>
+    <t>JAKA KOMARA
+3211050805870003
+Sumedang, 06 Mei 1987 LK
+Kary Honorer
+Kp Randu Kurung Rt 001 Rw 009 Desa Tanimulya Kec. Ngamprah Kab. Bandung barat
+081224781213
+Islam
+S1 admintrasi negara
+Indonesia/di Rumah korban Kp. Randu Kurung Rt 001 Rw. 009 Desa Tanimulya Kec.  Ngamprah Kab. Bandung barat</t>
+  </si>
+  <si>
+    <t>Pada hari Senin tanggal 28 Agustus 2023 sekitar jam 03.00 wib tempat kejadian di Rumah korban Kp. Randu Kurung Rt 001 Rw. 009 Desa Tanimulya Kec. Ngamprah Kab. Bandung barat, telah terjadi tindak pidana Pencurian dengan pemberatan yang dilakukan oleh pelaku dengan cara mencuri sepeda motor Merk CBR Custom KLX wama Biru Putih No Pol Z. 6881 PK tahun 2014 wama Putih Merah No.Ka MH1KC4115EK202546, No.Sin: KC41E1199275 No BPKB: K 12805543 Strik an. ANGGA RAMDANI yang sedang di parkir di garasi rumah yang garasi tersebut terkunci gembok dan juga sepeda motor yang terkunci kontak serta kunci stang., Akibat peritiwa tersebut korban dirugikan sebesar Rp.10.000.000,- (sepuluh juta rupiah). selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih lanjut-</t>
+  </si>
+  <si>
+    <t>B/743/VIII/2023/2023-08-28 17:00:00</t>
+  </si>
+  <si>
+    <t>ASHARI PRATAMA
+3277032209850021
+Cimahi, 22-09-1985 : Laki-laki
+Wiraswasta
+Jl. Cihanjuang No. 90 Rt. 004 Rw. 013 Ds. Cihanjuang Rahayu
+Kec. Parompong Kab. KBB
+082214563699
+Islam
+SMK
+Indonesia/JI. Cihanjuang No. 90 Rt. 004 Rw. 013 Ds. Cihanjuang Rahayu Kec. Parompong Kab. Bandug Barat</t>
+  </si>
+  <si>
+    <t>Pada hari Minggu Tanggal 27 Agustus 2023, sekira Jam 20.20 Wib, di Jl. Cihanjuang No. 90 Rt. 004 Rw. 013 Ds. Cihanjuang Rahayu Kec. Parompong Kab. Bandug Barat., telah terjadi tindak pidana Pencurian dengan pemberatan berupa hewan ternak jenis Burung KENARI (Yorkshire), kejadian tersebut di ketahui ketika korban melihat burung yang berada di dalam 5 (lima) sangkar sudah terbuka dan burung Kenari yang di dalam nya juga sudah tidak ada, akibat kejadian tersebut korban/pelapor mengalami kerugian materi sebesar Rp. 15.000.000,- (lima belas juta rupiah) dan selanjutnya melaporkan kepolres Cimahi guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>B/356/VIII/2023/2023-08-26 17:00:00</t>
+  </si>
+  <si>
+    <t>DRS H. M. MADANI
+3204320000000017
+INDONESIA Laki-laki
+BUSU MUTIARA, 08-06-1900
+WIRASWASTA
+ISLAM
+JL BALE AGUNG NO 7 ART/RW 000/012 BALEENDAH BANDUNG
+085221727577/JL.GATOT SUBROTO NO 3 A/9. RT 04 RW 05, Karangmekar, Cimahi Tengah, Kota Cimahi, Jawa Barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada hari Selasa Tanggal 14 Maret 2023 sekira Pukul 10.00 Wib di Jl. Gatot Subroto NO 3.A/9 RT.004/005 Karangmekar Cimahi Tengah Kota Cimahi diduga telah telah terjadi tindak Pidana Penggelapan yang diduga dilakukan oleh Terlapor dengan cara awal mula kejadian Pelapor menitipkan kendaraan Miliknya kepada Terlapor berupa 1 (satu) Unit R4 dengan Merk/Type: Toyota/Fortuner 25 G AT No. Pol. D 1049 ABV Tahun 2014 Warna Hitam Metalik, No. Ka MHFZR60G1E3089068 No. Sin, 2KDU496830 an. DR IR KASTAM ASTAMI, MSC berikut STNK dan BPKB kendaraan tersebut dengan maksud dan tujuan untuk proses pengajuan pinjaman ke leasing dengan menggunakan aplikasi atas nama YUDI HERMAWAN (Terlapor) agar mempermudah proses peminjaman tersebut. akan tetapi kendaraan tersebut oleh Terlapor di jual kepada pihak lain tanpa seijin sepengetahuan dari Pelapor sebagai pemilik kendaraan dan uang hasil penjualan kendaraan tersebut tidak di serahkan kepada Pelapor, sehingga atas kejadian tersebut Pelapor/Korban mengalami kerugian: Rp 270 000 000,- ( Dua Ratus Tujuh puluh juta Rupiah) dan selanjutnya Pelapor melapor ke Siaga SPKT Polda Jabar guna penyelidikan lebih lanjut Korban (Nama DRS H. M. MADANI, Suku Bangsa INDONESIA, Kelamin Laki-laki Pekerjaan WIRASWASTA, Kondisi), dengan kerugian Rp. 270.000.000,- motif kejahatan KARENA SENGAJA/DOLUS sasaran kejahatan KENDARAAN BERMOTOR/ modus operandi MENGGELAPKAN
+</t>
+  </si>
+  <si>
+    <t>YUDI HERMAWAN, DKK, nomor identitas: kewarganegaraan: INDONESIA, suku  jenis kelamin Laki-laki, tempat/tanggal lahir CIMAHI 1970-06-26, umur 53 tahun, pekerjaan  WIRASWASTA, agama: ISLAM, alamat JL GATOT SUBROTO NO 3.A/9 RT 004/005  KARANGMEKAR CIMAHI TENGAH, KOTA CIMAHI, JAWA BARAT,</t>
+  </si>
+  <si>
+    <t>Pasal 372 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPKA HERDIANSYAH. SH.|BRIGADIR YEPPI SEPTIYANDI, SH.</t>
+  </si>
+  <si>
+    <t>SP2HP Tgl. 08/09/2023 Drs. Madani
+Undangan Klarifikasi Sdr. YUDI HERMAWAN</t>
+  </si>
+  <si>
+    <t>B/748/VIII/2023/2023-08-29 17:00:00</t>
+  </si>
+  <si>
+    <t>SETIAWAN
+3277031411000010
+Cimahi, 14-11-2000
+Mahasiswa
+Kp. Lebak Saat Girang Rt 02 Rw 021 Cipageran Kec. Cimahi Selatan Kota Cimahi
+083877255358
+Islam
+SMK Indonesia/JI Karya Bakti 6 Kel Cigugur Tengah Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Minggu tanggal 27 Agustus 2023 sekitar jam 10.00 wib tempat kejadian JI Karya Bakti 6 Kel Cigugur Tengah Cimahi Tengah Kota Cimahi telah terjadi dugaan bindak pidana pencurian 1 unit kendaraan R2 Merk Kawasaki tahun 2019 wama Orange, No.Pol D 5808 SBL, No.Ka MH4LX150FKJP97572 No. Sin: LX150CEWK0298 No BPKB P 07989783 Stnk an SETIAWAN yang dilakukan oleh orang tidak dikenal dengan cara pelaku mengambil sepeda motor korban pada saat diparkir didepan kosan dalam keadaan terkunci stang dan lubang kunci tertutup. Akibat pertiwa tersebut korban dirugikan sebesar Rp 55.600.000,- (Lima puluh lima juta enam ratus ribu rupiah), selanjutnya korban melaporkan kejadian tersebut ke pihak polres cimahi untuk penyelidikan lebih lanjut</t>
+  </si>
+  <si>
+    <t>B/756/IX/2023/2023-08-31 17:00:00</t>
+  </si>
+  <si>
+    <t>DIAN NURDIANSYAH
+3277021501990029
+Cimahi 15-01-1999
+Karyawan Swasta
+Kp Citaman 03/04 Kel Cigugur Tengah Kec Cimahi tengah Kota
+0821171300294
+Islam
+SMK/Tower BTS Telkomsel di Kp Bunisari Kulon 04/11 Ds.Gadobangkong Kec Ngamprah Kab Bandung Barat</t>
+  </si>
+  <si>
+    <t>Yang diketahui Pada Hari Selasa 29-08-2023 Jam 08.00 Wib di Tower BTS Telkomsel di Kp Bunisari Kulon 04/11 Ds Gadobangkong Kec Ngamprah Kab Bandung Barat yang berawal ketika pelapor selaku Mintenance datang ke Tkp untuk melakukan pengecekan rutinnamun pelapor melihat ada yang janggal ternyata lemari BTS sudah terbuka dan batterylithiumhuawei NGPESM 48100U2,ld Protolindo JAW WJV.0176.TB/SASAK BEUSI PADASUKA CIMAHI Id Telkomsel BDB058-RANCABOGOMD,sebanyak 3 (tiga) bual Bank Battery hilang,lalu pelapormelaporkan ke PT Telkomsel selaku pemilik Battery tersebut,selanjutnya pemilik barang/PT Telkomsel menyuruh pelapor untuk melaporkan kejadianterzebut, akibat kejadian tersebut korban mengalami kerugian sebesar Rp 36.000.000,-(tiga puluh juta rupiah), dan selanjutnya hari Jumat Tanggal 01 September 2023 melaporkan kepolres Cimahi guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>B/766/IX/2023/2023-09-03 17:00:00</t>
+  </si>
+  <si>
+    <t>MEI CANDRA PUTRI TELAUMBANUA
+3204106805010007
+Bandung, 28 Mei 2001
+Swasta
+Jl. Jati Utama Blok Y 3 No. 11 Rt. 003 Rw. 020 Desa Margaasih Kec. Margaasih Kab. Bandung : 085215658145
+Kristen
+SMA/di Jl. Baros Kec. Cimahi Tengah Kota Cimahi tepat nya di lapangan Brigif</t>
+  </si>
+  <si>
+    <t>Pada hari Minggu tanggal 03 September 2023 diketahui sekira pukul 09.00 Wib di Jl. Baros Kec. Cimahi Tengah Kota Cimahi tepat nya di lapangan Brigib telah terjadi tindak pidana penipuan dan atau Penggelapan 1 (satu) unit sepeda motor roda dua merk Honda Beat, No Rangka MH1JM9128NK157696, Nomor mesin: JM 91E2156693 NoPol: D-5425-UEQ, tahun 2022, warna coklat, sepeda motor tersebut di ambil/hilang sewaktu korban sedang ada di motor kemudian datang seorang laki-laki yang tidak kenal untuk meminjam sepeda motor milik korban namun korban tidak mengiyakan tetapi tidak tau gimana korban dengan saksi teman korban yang saat itu ada di tempat kejadian kaget bahwa sepeda motor milik korban sudah tidak ada Akibat kejadian tersebut korban menderita kerugian sebesar Rp 16.000.000,- (enam belas juta rupiah), dan melaporkan kepolres cimahi guna untuk pengusutan lebih lanjut. -</t>
+  </si>
+  <si>
+    <t>372 &amp;/ 378 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LP/B/ 359/V/2023/2023-05-05 17:00:00</t>
+  </si>
+  <si>
+    <t>TOMY HENDARTO, AMd.Kom
+3603171808740013
+Bandung, 18 Agustus 1974
+Laki-laki
+Karyawan Swasta
+Komp Taman Ubud Loka VIII No. 52 Rt. 000 Rw. 000 Ds. Binong Kec. Curug Kab.Tanggerang
+0818700468
+Islam
+D-3/Kantor Notaris Elsa, S.H. dia Jl. Raya Gadobangkong No. 100 Ds. Gadobangkong Kec. Ngamprah Kab. Bandung Barat.</t>
+  </si>
+  <si>
+    <t>Pada hari Jum'at Tanggal 04 Februari 2022, sekira jam 10.00 Wib, di Di Kantor Notaris Elsa, S.H. d/a Jl. Raya Gadobangkong No. 100 Ds. Gadobangkong Kec. Ngamprah Dokumen Kab. Bandung Barat, diduga telah terjadi Penipuan dan Penggelapan atau memalsukan surat-surat terkait transaksi 3 (tiga) ruko milik pelapor d'a Kp. Sukamaju Rt 01/04 Ds. Cilame Kec. Ngamprah Kab. Bandung Barat, yang di percayakan melakukan transaksi kepada para pembeli, terlapor sudah menerima semua hasil jual pelapor kepada terlapor untuk di jual kepada para pembeli ternyata terlapor sudah beli tanah dan ruko serta sertifikat Hak Milik (SHM) sudah beralih kepada para pembeli tersebut tanpa sepengetahuan atau di konfirmasi kepada pelapor dan pelapor pun tidak pernah tanda tangan terkait peralih kepemilikin SHM tersebut, atas kejadian tersebut korban mengalami kerugian materi sebesar kurang lebih Rp. 750.000.000,-- (tujuh ratus lima puluh juta rupiah), kemudian Pelapor / korban melaporkan kejadian tersebut ke kantor kepolisian guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>ASEP DANI SETIAWAN
+Laki-laki
+Alamat
+Dusun Tugusari Rt. 10/05 Ds. Sukamukti Kec.Pamarican Kab. Ciamis</t>
+  </si>
+  <si>
+    <t>Tindak Pidana Penipuan dan Penggelapan atau memalsukan surat-surat sebagaimana di amaksud dalam pasal 378 dan atau 372 dan atau pasal 263 dan atas pasal 266 KUHPidana/BRIPKA DOHAR BACIN, SH.</t>
+  </si>
+  <si>
+    <t>B/778/IX/2023/2023-09-06 17:00:00</t>
+  </si>
+  <si>
+    <t>HAZLINA
+3217024609880002
+Bandung, 06-09-1988
+Perempuan
+Mengurus Rumah Tangga
+Kp. Cipanjak Rt. 03 Rw. 14 Desa/Kel. Cigugur Girang Kec. Parongpong Kab. Bandung Barat
+082115496248
+Islam
+SDA
+Indonesia/Dekat Carwash Cipanjak 88 Kp. Cipanjak Desa/Kal. Cigugur Girang Kec. Parongpong Kab. Bandung Barat</t>
+  </si>
+  <si>
+    <t>Pada hari Senin Tanggal 04 September 2023 sekira jam 21.00 Wib di Dekat Carwash Cipanjak 88 Kp. Cipanjak Desa/Kel. Cigugur Girang Kec. Parongpong Kab. Bandung Barat, telah terjadi tindak pidana Penganiayaan dan atau kekerasan terhadap anak yang dilakukan oleh terlapor dengan cara terlapor memangil korban yang pada saat itu korban sedang membeli ayam di TKP setelah korban menghampiri terlapor kemudian terlapor langsung membacok kepala bagian belakang korban, setelah itu terlapor langsung kabur/pergi, sehingga dengan adaya kejadian tersebut korban mengalami luka jahit dikepala bagian belakang sampai ke leher, selanjunta Pelapor (orang tua korban) melaporkan peristiwa tersebut ke Polres Cimahi untuk pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>1.	AZIS SYAHPUTRA, Bandung, 22 Mei 2005, Laki – laki, Islam, Pelajar / Mahasiswa, Indonesia, Kp. Ciwaruga Rt.04 Rw.04 Desa Ciwaruga Kec. Parongpong Kab. Bandung Barat. 3217022205050005  2.	AHMAD RIAN HOERUDIN, Bandung Barat, 22 Februari 2008, Laki – laki, Islam, Pelajar / Mahasiswa, Indonesia, Kp. Kancah Rt.03 Rw.13 Desa Cihideung Kec. Parongpong Kab. Bandung Barat. 3217022202080006  3.	ANGGA ANDRIELLA AGUSTIN, Bandung, 24 April 2008, Laki – laki, Islam, Pelajar / Mahasiswa, Indonesia, KP. Paneungteung Rt.02 Rw.11 Desa Cihanjuang Rahayu Kec. Parongpong Kab. Bandung Barat, 3217022404080013  4.	VALENTINO CANTONA, Sukabumi, 18 Juni 2009, Laki – laki, Islam, Pelajar / Mahasiswa, Indonesia, Kp. Ciwaruga Rt.04 Rw.04 Desa Ciwaruga Kec. Parongpong Kab. Bandung Barat. 3202311105080001  5.	MUHAMAD ARIEF SURYANA, Bandung, 01 September 2005, Laki – laki, Islam, Pelajar / Mahasiswa, Indonesia, Kp. Mokla Rt.01 Rw.13 Desa Cihanjuang Rahayu Kec. Parongpong Kab. Bandung Barat.</t>
+  </si>
+  <si>
+    <t>Pasal 80 ayat (1), (2) UURI No. 17/2016 Tentang Penetapan Peraturan  Pengganti Undang Undang No. 1/2016 Tentang Perubahan  kedua atas Undang Undang  No. 23/2002 Tentang Perlindungan anak menjadi  Undang Undang dan atau Pasal 351 KUHP/AIPDA EKA PRATAMA|BRIPKA DOHAR BACIN, SH.|BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LI/598/IX/2023/2023-09-06 17:00:00</t>
+  </si>
+  <si>
+    <t>Garut, 15 Maret 1999
+Laki-Laki
+Wiraswasta
+Islam
+Kp. Kolelega Rt. 03 Rw. 01 Sadangmekar Kec. Cisarua Kab. Bandung Barat
+081382365603/Jl. Sangkuriang No. 82 Rt. 02 Rw. 02 Kel. Cipageran Kec. Cimahi Utara Kota Cimahi</t>
+  </si>
+  <si>
+    <t>378 dan atau 372 KUHP/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/619/VII/2023/2023-07-23 17:00:00</t>
+  </si>
+  <si>
+    <t>RUDI HERMAWAN
+3217062508760011
+Cimahi 25-08-1976
+Buruh Harian Lepas
+JL Sentral No. 19 Rt.001 Rw 012 Kel Cibabat Kec Cimahi Utara
+0895320692472
+Islam
+:SMA/Sederajat/JI. Padat Karya Gg Majid Al Mumin No.57 Rt 01 Rw 12 Kel Cibeber Kec Cimahi Selatan</t>
+  </si>
+  <si>
+    <t>Pada Hari Sabtu Tgl 22 Juli 2023 Pukul 03.00 Wib. Di Jl. Padat Karya Gg Majid Al Mumin No.67 Rt 01 Rw 12 Kel Cibeber Kec Cimahi Selatan... Telah terjadi Tindak Pidana Pencurian R2 dengan No Polisi: D 3440 SBR, Merek/Wama: Honda Beat - Biru, No Ka: MH1JM9121NK163808 No Sin JM91E2162815, Na BPKB Rudihermawan yang dimana saat korban hendak melaksanakan sholat subuh pada pukul 04.30 Wib motor didapati sudah tidak ada di halaman depan rumah atas kejadian tsb korban mengalami kerugian Rp.16.000.000,- (enam belas juta rupiah) atas kejadian tersebut Pelapor selanjutnya melaporkan ke polres Cimahi Guna Pengusutan lebih Lanjut</t>
+  </si>
+  <si>
+    <t>363 KUHP/BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>B/779/IX/2023/2023-09-06 17:00:00</t>
+  </si>
+  <si>
+    <t>KRISTINA SUPRI WAHYUNI
+3277025907790012
+Purworejo, 19-07-1979
+Mengurus Rumah Tangga
+Kp. Sukaraja Rt. 05 Rw. 10 Kel. Baros Kec. Cimahi Tengah Kota Cimahi
+083840698806
+Katholik
+SMA (Tamat Berijazah)/Kp. Sukaraja Rt. 05 Rw. 10 Kel. Baros Kec. Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada hari Kamnis Tanggal 07 September 2023 sekira jam 05.00 Wib di Kp. Sukaraja Rt. 05 Rw. 10 Kel. Baros Kec. Cimahi Tengah Kota Cimahi, telah terjadi tindak pidana Pencurian dengan pemberatan yang dilakukan oleh terlapor dalam lidik dengan cara terlapor mengambil 1 (satu) unit kendaraan Sepeda Motor R2 Merek/Type YAMAHA B3W S A/T (Gear), Tahun 2021, Warna MERAH, No.Pol.: D6404-SBP, Noka.: MH3SEG720MJ016822, Nosin.: E32XE0019208, BPPKB No.: S-00531824, STNK an KRISTINA SUPRI WAHYUNI milik korban yang disimpan dihalaman/parkiran rumah dalam keadaan dikunci stang dan pintu pagar ditutup sudah tidak ada/hilang, sehingga dengan adanya kejadian tersebut korban mengalami kerugian materil sebesar Rp. 17.000.000,- (tujuh belas juta rupiah), selanjunta Pelapor/Korban melaporkan peristiwa tersebut ke Polres Cimahi untuk pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>SP2HP/1624/IX/23, Tgl. 11 September 2023  Sdr. KRISTINA SUPRI WAHYUNI</t>
+  </si>
+  <si>
+    <t>SP.GAS/LIDIK/1316/IX/2023</t>
+  </si>
+  <si>
+    <t>Pengaduan/2023-09-10 17:00:00</t>
+  </si>
+  <si>
+    <t>EET ERYANTLAM KEB
+Majalengka, 04 Maret 1979
+PNS
+D3
+Perempuan
+Kp.Paneungteung Rt.01 Rw.11 Ds.Cihanjuang Rahayu Kec. Parongpong Kab. Bandung Barat
+NIK 3217024403790002
+082319129493/081321820236/Di Rumah Makan Sate Marangi Wida Jin Sersan Bajuri Desa Cihideung Kecamatan Parongpong Kabupaten Bandung Barat</t>
+  </si>
+  <si>
+    <t>Saya mengadukan tentang dugaan peristiwa tindak pidana minta keterangan atau di interograsi untuk didengar keterangannya dalam dugaan tindak pidana penggelapan R4 yang di ketahui terjadi pada nan Jum,at tanggal 04 Agustus 2023 sekitar jam 19.30 wib Di Rumah Makan Sate Marangi Wida Jin Sersan Bajuri Desa Cihideung Kecamatan Parongpong Kabupaten Bandung Barat, yang dilakukan oleh Sdr.SADEWO.A.W dengan cara menarik kendaraan milik tanpa seijin dan sepengetahuan saya kendaraan tersebut dilelang oleh PT.WOM sehingga atas adanya kejadian tersebut saya merasa telah ditipu oleh terlapor dan mengakibatkan saya mengalami kerugian materil sejumlah Pp. 350.000.000 (tiga ratus lima puluh juta rupiah).
+Demikian pengaduan ini saya buat dengan yang sebenar-benarnya.</t>
+  </si>
+  <si>
+    <t>Sdr.SADEWO.A.W</t>
+  </si>
+  <si>
+    <t>372 KUHP/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPKA HERDIANSYAH. SH.</t>
+  </si>
+  <si>
+    <t>B/1127/VII/2017/2017-07-06 17:00:00</t>
+  </si>
+  <si>
+    <t>NENG HENI MUNAWATI
+Bandung, 07-10-1982
+Islam
+Swasta
+Jin Cijerah Gg Pasantren Rt.06 Rw.06 Kel. Cibuntu Kec. Bandung Kulon - Bandung.
+081809751992/Jln. MK Wiganda Sasmita No. 52 Rt.02 Rw.09 Kel. Cimahi Tengah Apa Yang Terjadi: Tindak Pidana Fidusia dan atau Penggelapan</t>
+  </si>
+  <si>
+    <t>Pada hari Jumat tanggal 16 Desember 2016 di Jln MK Wiganda Sasmita No. 52 Rt.02 Rw.09 Kel. Cimahi Tengah Kota Cimahi telah terjadi tindak pidana mengalihkan kendaraan R4 merk Mitsubhisi warna merah metalik, tahun 2016, no pol: D-1701-AEC, No Ka: MM8XNA03AGH012083, No.Sin: 3A92UCY3769 An. Martika, yang dilakukan oleh terlapor MARTIKA, yang dilakukan dengan cara terlapor telah mengalilikan kendaraan R4 yang menjadi objek jaminan Fidusia kepada pihak lain tanpa seijin dari PT. Indo Mobil Finance.
+Akibat kejadian tersebut korban mengalami kerugian sekitar Rp 209,714,000 (dua ratus sembilan juta tujuh ratus empat belas ribu rupiah), sebagaimana dimaksud dalam Pasal 36 UURI No. 42 this 1999 tentang Fidusia dan atau Pasal 372 KUHPidana...
+Tindakan yang diambil: Menerima Laporan, membuat laporan Polisi dan Menyerahkan ke Pikel Sat Reskrim</t>
+  </si>
+  <si>
+    <t>MARTIKA, Swasta 12 Jln Bojong Terusan Batununggal No. 43 Rt.03 Rw.12 Kel. Batununggal Kec.Bandung Kidul
+PT. Indo Mobil Finance Bandung</t>
+  </si>
+  <si>
+    <t>Pasal 36 UURI No. 42 Tahun 1999 Tentang Fidusia dan atau Pasal 372 KUHPidana/BRIPKA HERDIANSYAH. SH.</t>
+  </si>
+  <si>
+    <t>B/765 /1X/2023/2023-09-02 17:00:00</t>
+  </si>
+  <si>
+    <t>IDAH MUSTAIDAH
+3206125809880002
+Tasikmalaya 18-09-1988
+Perempuan
+Mengurus Rumah Tangga
+Kp Legokhujan 04/09 Ds Cukangkawung Kec Sodong Hilir Kab
+Tasikmalaya
+0813-2267-7227/Kontrakan Mba YULI di Sriwijaya XIII 07/08 Ke Setimanah Kec Cimahi tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Hari Minggu 03-09-2023 Jam 20.45 Wib di Kontrakan Mba YULI di Sriwijaya XIII 07/08 Ke Setimanah Kec Cimahi tengah Kota Cimahi, Tindak pidana Pencurian Dengan Pemeberatan yang berawal ketika rumah/kamar kontrakan dalam keadaan kosong yang diketahui oleh Sdra SANDI sedang mengirim air Galon dikontrakan korban atau pelapor dan melihat terlapor/Pelaku (GALIH) sedang didalam kamar rumah kontrakan dan bertanya kepada Terlapor "mas bosnya kemana dan dijawab oleh terlapor/pelaku sedang keluar kemuadian Sdra SANDI pergi,dan sekitar jam 09.30 Wib Sdra SANDI kembali lagi kekontrakan dan bertemu di depan kamar kontrakan dengan pelaporkorban dan memberitahu Teh didalam kontrakan ada si galih dan disapa oleh Sdra SANDI,setelah dicekb melihat Engsel pintu sudah rusak dan uang yang didalam laci bupet sudah hilang dan sejumlah rokok,akibat kejadian tersebut korban mengalami kerugian sebesar Rp 3.500.000.-(tiga juta lima ratus ribu rupiah), dan selanjutnya hari Minggu Tanggal 03 September 2023 melaporkan kepolres Cimahi guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>/BRIPKA EKO YOHAN SETIONO, Spd.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LI/329/X/2021/2021-10-05 17:00:00</t>
+  </si>
+  <si>
+    <t>AI ROHANAH Binti Alm ATIP
+Cimahi, 04 Juli 1974
+Perempuan
+Islam
+Mengurus Rumah Tangga
+Jl. Sadarmanah No. 96 Rt. 04 Rw. 04 Kel. Leuwigajah Kec. Cimahi Selatan Kota Cimahi (sesuai KTP)/ Jl. KH. Usman Dhomiri Hilir No. 108 Rt. 01 Rw. 18 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi.
+081220016243/Jl. KH. Usman Dhomiri Hilir No. 108 Rt. 01 Rw. 18 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi.</t>
+  </si>
+  <si>
+    <t>Saya mengadukan tentang dugaan peristiwa tindak pidana penggelapan kendaraan R4 Merk Kijang Inova No Pol D 1293 SAF, tahun 2017, warna hitam metalik, Nomor Rangka MHFGB8EMXH0410467, Nomor Mesin 2GD4264274, atas nama Syarwan Hamid d/a Jl. KH. Usman Dhomiri No. 108 Rt. 01 RW. 18 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi serta barang-barang lainnya berupa uang tunai sebesar Rp. 350.000.000,-(tiga ratus lima puluh juta rupiah), 1 set Audio System, 1 set Televisi, 1 buah almari dan kursi, dan satu buah Microwave yang terjadi pada tanggal 30 Maret 2021 di Jl. KH. Usman Dhomiri No. 108 Rt. 01 Rw. 18 Kel. Padasuka Kec. Cimahi Tengah Kota Cimahi yang dilakukan oleh terlapor sdri. ENDANG AGUSTIN dan sari. HAYUNING DIAN SARI dengan cara terlapor menguasai kendaraan R4 tersebut dan barang-barang lainnya dimana dibarang lainnya ada milik saya sebagian yang berdasarkan Surat Keterangan Hibah yang dibuat oleh sdr. SYARWAN HAMID pada tanggal 30 April 2019, akibat dari kejadian tersebut saya mengalami kerugian materi untuk kendaraan R4 sebesar Rp. 320.000.000,-(tiga ratus dua puluh juta) rupiah, dan kejadian tersebut pelapor mengadukan kepada pihak Kepolisian.-
+Demikian Pengaduan ini saya buat dengan sebenar-benarnya.</t>
+  </si>
+  <si>
+    <t>ENDANG AGUSTIN
+HAYUNING DIAN SARI</t>
+  </si>
+  <si>
+    <t>378 KUHP/BRIGADIR YEPPI SEPTIYANDI, SH.|BRIPTU ARI KHAERUL R.</t>
+  </si>
+  <si>
+    <t>LP/B/154/11/2023/2023-02-05 17:00:00</t>
+  </si>
+  <si>
+    <t>SAITO TAMOTSU
+TS-2659520
+Hiroshima, 12-08-1989
+Laki-laki Invesment
+Jl. Gunung Batu No. 203 Rt 006 Rw 007 Kel. Sukaraja Kec. Cicendo Kota
+Bandung
+081284975752
+Budha
+SMA
+Jepang/Komp Nirwana Regency Jl. Bukit Nirwana No. 10 A RL 003 Rw. 010 Sariwangi Kec. Parompong Kab. Bandung Barat</t>
+  </si>
+  <si>
+    <t>Pada hari Kamis Tanggal 10 September 2020, sekira jam 17.00 Wib di Komp Nirwana Regency Jl. Bukit Nirwana No. 10 A Rt 003 Rw. 010 Desa Sariwangi Kec. Parompong Kab. Bandung Barat, diduga telah terjadi tindak pidana Penipuan dan Pengelapan uang sebesar Rp. 6.800.000.000,- (enam miliar delapan ratus juta rupiah) yang dilakukan oleh terlapor NELLY DULAN terhadap korban dengan cara terlapor mengajak korban melakukan kerjasama jual bell Logam mulia (Emas) dengan keuntungan 50 persen setiap bulan dari nilai uang yang telah di investasikan, selanjutnya setelah korban memberikan uang invest tersebut diatas, terlapor tidak juga memberikan keuntungan 50 persen yang telah di sepakat dan juga terlapor tidak mengembalikan uang modal yang telah di investasi kan, atas kejadian tersebut korban mengalami kerugian materi sebesar kurang lebih Rp. 6.800.000.000,- (enam miliar delapan ratus juta rupiah), Kemudian korban melaporkan kejadian tersebut ke kantor kepolisian guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>NELLY DULAN (Plaju, 10-07-1970)</t>
+  </si>
+  <si>
+    <t>Pasal 378 jo 372 KUHP/AIPDA EKA PRATAMA</t>
+  </si>
+  <si>
+    <t>B/640/VII/2023/2023-07-27 17:00:00</t>
+  </si>
+  <si>
+    <t>DADANG EFENDI
+3216072508650007
+Bandung, 25-08-1965
+Laki-laki
+Karyawan Swasta Citra Villa Wanasari Blok JC. 4/8 RL 002 Rw. 017 Do. Wanasari Kec. Cibitung Kab. Bekasi
+081553640517/Kantor BANK BCA Cab Cimahi Jl. Cimahi No. 533 Kel. Karang mekar Kec. Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Hari Senin Tanggal 31 Mei 2021, sekira Jam 08.20 Wib, di Kantor BANK BCA Cab Cimahi Jl. Cimahi No. 533 Kel. Karang mekar Kec. Cimahi Tengah Kota Cimahi, telah terjadi tindak pidana Penipuan Jo 372 dan atau Penggelapan uang sebesar Rp. 30.000.000,- (tiga puluh juta rupiah) yang di lakukan oleh terlapor dengan cara terlapor mengajak kerjasama kepada korban untuk pengadaan bahan makanan pokok di Lapas kelas 1 Sukamiskin Bandung dengan meminta uang sebesar Rp. 30.000.000,- (tiga puluh juta rupiah) dan akan memberikan keuntungan kepada korban sebesar 10 persen per setiap 1 (satu) bulan, namun sampai saat ini uang modal maupun uang keuntungan yang di janjikan tidak ada, atas kejadian tersebut kejadian tersebut korban mengalami kerugian materi sebesar Rp. 30.000.000 (tiga puluh juta rupiah) dan selanjutnya melaporkan kepotres Cimahi guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>DEVI NURYANTI Kp. Rancabentang Kel. Cibeureum Kec. Cimahi Selatan Kota Cimahi</t>
+  </si>
+  <si>
+    <t>378 KUHP/BRIGADIR YEPPI SEPTIYANDI, SH.</t>
+  </si>
+  <si>
+    <t>B/795/IX/2023/2023-09-11 17:00:00</t>
+  </si>
+  <si>
+    <t>FADLY MUSTAFA
+3273051301020001
+Bandung, 13-01-2002
+Lk
+Wiraswasta
+Meleber Barat Rt 05 Rw 03 Kec. Andir Kota Bandung
+082121042623
+Islam SD/Dr G Carwash JI Haji Aris No 28 Baros Rt 02 Rw 09 Kel Baros Kec Cimahi Tengah Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Pada Hari Selasa Tanggal 12 September 2023 jam 06.00 wib, Dr G Carwash JI Haji Aris No 28 Baros Rt 02 Rw 09 Kel Baros Kec Cimahi Tengah Kota Cimahi Adanya dugaan tindak pidana pencurian dengan pemberatan barang barang 3 (tiga) Buah Handphone Merk Oppo Reno Wama Putih (082120584283)..Handphone Merk Realme Wama Biru (082121042623) IMEI 866042050276141. dan Handphone Merk Vivo V19 Wama Biru (08821832779) IMEI 867355048345086,atas kejadian tersebut pelapor mengalami kerugian Rp 9.000.000, ( Sembilan juta rupiah) dan selanjutnya melaporkan kepada pihak kepolisian guna pengusutan lebih lanjut</t>
+  </si>
+  <si>
+    <t>B/792/IX/2023/2023-09-11 17:00:00</t>
+  </si>
+  <si>
+    <t>IMAS JUARIAH
+3277026308710015
+Bandung, 23-08-1971
+Mengurus Rumah Tangga
+Kp. Cigugur Tengah Rt. 07 Rw. 10 Kel. Cigugur Tengah Kec. Cimahi Tengah
+Kota Cimahi.
+089628584466
+Islam
+SMP/Kp. Cigugur Tengah Rt. 07 Rw. 10 Kel. Cigugur Tengah Kec. Cimahi Tengah</t>
+  </si>
+  <si>
+    <t>Pada hari Selasa tanggal 12 September 2023 sekira jam 03.30 Wib di Kp. Cigugur Tengah Rt. 07 Rw. 10 Kel. Cigugur Tengah Kec. Cimahi Tengah Kota Cimahi, telah terjadi tindak pidana pencurian dengan pemberatan / Curat yang dilakukan oleh terlapor dalam lidik dengan cara merusak/menjebol kunci pintu gerbang dan berhasil mengambil 1 (satu) unit kendaraan sepeda motor R2 Merek/Type HONDA D1B02N26L2 A/T, Tahun 2019, Wama HITAM, No.Pol.: D-6869-SBJ, Noka.: MH1JFZ138KK330776, Nosin.: JFZ1E3330893, No.BPKB.: P01039167, STNK an. DARYATNA, milik korban yang disimpan dihalaman rumah dalam keadaan dikunci stang dan pintu gerbang dikunci sudah tidak ada/hilang, sehingga dengan adanya kejadian tersebut korban mengalami kerugian materil sebesar Rp. 17.000.000,- selanjutnya pelapor melaporkan peristiwa tersebut ke polres cimahi untuk
+pengusutan lebih lanjut</t>
   </si>
 </sst>
 </file>
@@ -78,8 +1139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,25 +1480,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="true" style="1"/>
+    <col min="2" max="2" width="46" customWidth="true" style="2"/>
+    <col min="3" max="3" width="56.77734375" customWidth="true" style="2"/>
+    <col min="4" max="4" width="8.88671875" customWidth="true" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -446,6 +1519,1026 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
